--- a/results.xlsx
+++ b/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="109">
   <si>
     <t>SecondEst</t>
   </si>
@@ -26,15 +26,537 @@
   </si>
   <si>
     <t>(-0.001, 25.0]</t>
+  </si>
+  <si>
+    <t>19.68 
+ (15.88) 
+p0.0 = 0.00 
+p0.25 = 9.00 
+p0.5 = 15.00 
+p0.75 = 25.00 
+p1.0 = 85.00 
+N=343</t>
+  </si>
+  <si>
+    <t>1.00 
+ (0.00) 
+1: 1.00 
+N=343</t>
+  </si>
+  <si>
+    <t>(25.0, 45.0]</t>
+  </si>
+  <si>
+    <t>38.20 
+ (16.52) 
+p0.0 = 0.00 
+p0.25 = 25.00 
+p0.5 = 35.00 
+p0.75 = 50.00 
+p1.0 = 90.00 
+N=294</t>
+  </si>
+  <si>
+    <t>1.00 
+ (0.00) 
+1: 1.00 
+N=294</t>
+  </si>
+  <si>
+    <t>(45.0, 65.0]</t>
+  </si>
+  <si>
+    <t>53.29 
+ (14.89) 
+p0.0 = 5.00 
+p0.25 = 41.00 
+p0.5 = 55.00 
+p0.75 = 65.00 
+p1.0 = 100.00 
+N=297</t>
+  </si>
+  <si>
+    <t>1.00 
+ (0.00) 
+1: 1.00 
+N=297</t>
+  </si>
+  <si>
+    <t>(65.0, 100.0]</t>
+  </si>
+  <si>
+    <t>72.14 
+ (18.93) 
+p0.0 = 5.00 
+p0.25 = 60.00 
+p0.5 = 75.00 
+p0.75 = 85.00 
+p1.0 = 100.00 
+N=302</t>
+  </si>
+  <si>
+    <t>1.00 
+ (0.00) 
+1: 1.00 
+N=302</t>
+  </si>
+  <si>
+    <t>preference_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> are more curious to try Soap flavored Bertie Bott's Every Flavour Beans than Earthworm flavored Bertie Bott's Every Flavour Beans</t>
+  </si>
+  <si>
+    <t>53.78 
+ (23.40) 
+p0.0 = 4.00 
+p0.25 = 35.00 
+p0.5 = 55.00 
+p0.75 = 73.50 
+p1.0 = 96.00 
+N=119</t>
+  </si>
+  <si>
+    <t>1.00 
+ (0.00) 
+1: 1.00 
+N=119</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> believe climate change is a serious threat to human survival</t>
+  </si>
+  <si>
+    <t>66.60 
+ (20.91) 
+p0.0 = 10.00 
+p0.25 = 53.00 
+p0.5 = 70.00 
+p0.75 = 80.00 
+p1.0 = 99.00 
+N=121</t>
+  </si>
+  <si>
+    <t>1.00 
+ (0.00) 
+1: 1.00 
+N=121</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> believe it should be legal to use psychedelic drugs  (e.g. LSD)</t>
+  </si>
+  <si>
+    <t>35.25 
+ (24.46) 
+p0.0 = 0.00 
+p0.25 = 18.00 
+p0.5 = 30.00 
+p0.75 = 50.00 
+p1.0 = 100.00 
+N=137</t>
+  </si>
+  <si>
+    <t>1.00 
+ (0.00) 
+1: 1.00 
+N=137</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can juggle with 3 balls</t>
+  </si>
+  <si>
+    <t>29.70 
+ (22.96) 
+p0.0 = 1.00 
+p0.25 = 10.75 
+p0.5 = 25.00 
+p0.75 = 45.75 
+p1.0 = 90.00 
+N=136</t>
+  </si>
+  <si>
+    <t>1.00 
+ (0.00) 
+1: 1.00 
+N=136</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> own crypto currency (e.g. Bitcoin)</t>
+  </si>
+  <si>
+    <t>27.73 
+ (23.40) 
+p0.0 = 1.00 
+p0.25 = 8.00 
+p0.5 = 20.00 
+p0.75 = 45.00 
+p1.0 = 98.00 
+N=133</t>
+  </si>
+  <si>
+    <t>1.00 
+ (0.00) 
+1: 1.00 
+N=133</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> prefer red over blue</t>
+  </si>
+  <si>
+    <t>49.52 
+ (16.83) 
+p0.0 = 10.00 
+p0.25 = 40.00 
+p0.5 = 50.00 
+p0.75 = 56.00 
+p1.0 = 95.00 
+N=116</t>
+  </si>
+  <si>
+    <t>1.00 
+ (0.00) 
+1: 1.00 
+N=116</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> would feel safer in a self-driving car (rather than driving themselves)</t>
+  </si>
+  <si>
+    <t>44.69 
+ (26.72) 
+p0.0 = 5.00 
+p0.25 = 24.25 
+p0.5 = 40.00 
+p0.75 = 65.00 
+p1.0 = 100.00 
+N=130</t>
+  </si>
+  <si>
+    <t>1.00 
+ (0.00) 
+1: 1.00 
+N=130</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> would prefer Dick Cheney over Sarah Palin to be president of the United States</t>
+  </si>
+  <si>
+    <t>50.26 
+ (22.64) 
+p0.0 = 0.00 
+p0.25 = 35.00 
+p0.5 = 50.00 
+p0.75 = 65.00 
+p1.0 = 100.00 
+N=105</t>
+  </si>
+  <si>
+    <t>1.00 
+ (0.00) 
+1: 1.00 
+N=105</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> would rather have the superpower of flight than super strength</t>
+  </si>
+  <si>
+    <t>58.16 
+ (18.18) 
+p0.0 = 5.00 
+p0.25 = 50.00 
+p0.5 = 60.00 
+p0.75 = 70.00 
+p1.0 = 92.00 
+N=116</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> would rather spend their evening going to a play at the theater than seeing a movie</t>
+  </si>
+  <si>
+    <t>40.67 
+ (25.62) 
+p0.0 = 5.00 
+p0.25 = 20.00 
+p0.5 = 35.00 
+p0.75 = 53.00 
+p1.0 = 100.00 
+N=123</t>
+  </si>
+  <si>
+    <t>1.00 
+ (0.00) 
+1: 1.00 
+N=123</t>
+  </si>
+  <si>
+    <t>pooled</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>44.98 
+ (25.70) 
+p0.0 = 0.00 
+p0.25 = 24.00 
+p0.5 = 45.00 
+p0.75 = 65.00 
+p1.0 = 100.00 
+N=1236</t>
+  </si>
+  <si>
+    <t>1.00 
+ (0.00) 
+1: 1.00 
+N=1236</t>
+  </si>
+  <si>
+    <t>21.47 
+ (14.54) 
+p0.0 = 0.00 
+p0.25 = 10.00 
+p0.5 = 18.00 
+p0.75 = 30.00 
+p1.0 = 80.00 
+N=467</t>
+  </si>
+  <si>
+    <t>0.00 
+ (0.00) 
+0: 1.00 
+N=467</t>
+  </si>
+  <si>
+    <t>(25.0, 50.0]</t>
+  </si>
+  <si>
+    <t>45.14 
+ (14.55) 
+p0.0 = 4.00 
+p0.25 = 35.00 
+p0.5 = 45.00 
+p0.75 = 55.00 
+p1.0 = 93.00 
+N=631</t>
+  </si>
+  <si>
+    <t>0.00 
+ (0.00) 
+0: 1.00 
+N=631</t>
+  </si>
+  <si>
+    <t>(50.0, 65.0]</t>
+  </si>
+  <si>
+    <t>55.55 
+ (12.93) 
+p0.0 = 25.00 
+p0.25 = 46.00 
+p0.5 = 55.00 
+p0.75 = 69.00 
+p1.0 = 85.00 
+N=211</t>
+  </si>
+  <si>
+    <t>0.00 
+ (0.00) 
+0: 1.00 
+N=211</t>
+  </si>
+  <si>
+    <t>70.59 
+ (18.12) 
+p0.0 = 10.00 
+p0.25 = 60.00 
+p0.5 = 75.00 
+p0.75 = 85.00 
+p1.0 = 100.00 
+N=435</t>
+  </si>
+  <si>
+    <t>0.00 
+ (0.00) 
+0: 1.00 
+N=435</t>
+  </si>
+  <si>
+    <t>53.16 
+ (22.88) 
+p0.0 = 0.00 
+p0.25 = 40.00 
+p0.5 = 55.00 
+p0.75 = 70.00 
+p1.0 = 98.00 
+N=179</t>
+  </si>
+  <si>
+    <t>0.00 
+ (0.00) 
+0: 1.00 
+N=179</t>
+  </si>
+  <si>
+    <t>68.18 
+ (17.75) 
+p0.0 = 10.00 
+p0.25 = 60.00 
+p0.5 = 70.00 
+p0.75 = 80.00 
+p1.0 = 100.00 
+N=177</t>
+  </si>
+  <si>
+    <t>0.00 
+ (0.00) 
+0: 1.00 
+N=177</t>
+  </si>
+  <si>
+    <t>38.17 
+ (23.78) 
+p0.0 = 2.00 
+p0.25 = 20.00 
+p0.5 = 30.00 
+p0.75 = 60.00 
+p1.0 = 95.00 
+N=161</t>
+  </si>
+  <si>
+    <t>0.00 
+ (0.00) 
+0: 1.00 
+N=161</t>
+  </si>
+  <si>
+    <t>30.05 
+ (19.87) 
+p0.0 = 1.00 
+p0.25 = 15.00 
+p0.5 = 26.00 
+p0.75 = 40.75 
+p1.0 = 95.00 
+N=162</t>
+  </si>
+  <si>
+    <t>0.00 
+ (0.00) 
+0: 1.00 
+N=162</t>
+  </si>
+  <si>
+    <t>26.19 
+ (18.55) 
+p0.0 = 1.00 
+p0.25 = 12.00 
+p0.5 = 21.00 
+p0.75 = 40.00 
+p1.0 = 90.00 
+N=165</t>
+  </si>
+  <si>
+    <t>0.00 
+ (0.00) 
+0: 1.00 
+N=165</t>
+  </si>
+  <si>
+    <t>49.88 
+ (16.17) 
+p0.0 = 10.00 
+p0.25 = 40.00 
+p0.5 = 50.00 
+p0.75 = 60.00 
+p1.0 = 100.00 
+N=182</t>
+  </si>
+  <si>
+    <t>0.00 
+ (0.00) 
+0: 1.00 
+N=182</t>
+  </si>
+  <si>
+    <t>42.07 
+ (21.85) 
+p0.0 = 3.00 
+p0.25 = 25.00 
+p0.5 = 40.00 
+p0.75 = 60.00 
+p1.0 = 100.00 
+N=168</t>
+  </si>
+  <si>
+    <t>0.00 
+ (0.00) 
+0: 1.00 
+N=168</t>
+  </si>
+  <si>
+    <t>54.21 
+ (21.40) 
+p0.0 = 2.00 
+p0.25 = 40.00 
+p0.5 = 55.00 
+p0.75 = 70.00 
+p1.0 = 100.00 
+N=193</t>
+  </si>
+  <si>
+    <t>0.00 
+ (0.00) 
+0: 1.00 
+N=193</t>
+  </si>
+  <si>
+    <t>58.70 
+ (17.58) 
+p0.0 = 10.00 
+p0.25 = 50.00 
+p0.5 = 60.00 
+p0.75 = 70.00 
+p1.0 = 100.00 
+N=182</t>
+  </si>
+  <si>
+    <t>38.45 
+ (20.58) 
+p0.0 = 4.00 
+p0.25 = 22.50 
+p0.5 = 35.00 
+p0.75 = 51.00 
+p1.0 = 99.00 
+N=175</t>
+  </si>
+  <si>
+    <t>0.00 
+ (0.00) 
+0: 1.00 
+N=175</t>
+  </si>
+  <si>
+    <t>46.41 
+ (23.63) 
+p0.0 = 0.00 
+p0.25 = 30.00 
+p0.5 = 46.00 
+p0.75 = 63.00 
+p1.0 = 100.00 
+N=1744</t>
+  </si>
+  <si>
+    <t>0.00 
+ (0.00) 
+0: 1.00 
+N=1744</t>
   </si>
   <si>
     <t>20.71 
  (15.14) 
-p=0.0: 0.00 
-p=0.25: 10.00 
-p=0.5: 15.00 
-p=0.75: 30.00 
-p=1.0: 85.00 
+p0.0 = 0.00 
+p0.25 = 10.00 
+p0.5 = 15.00 
+p0.75 = 30.00 
+p1.0 = 85.00 
 N=810</t>
   </si>
   <si>
@@ -50,11 +572,11 @@
   <si>
     <t>39.94 
  (14.97) 
-p=0.0: 0.00 
-p=0.25: 30.00 
-p=0.5: 40.00 
-p=0.75: 50.00 
-p=1.0: 93.00 
+p0.0 = 0.00 
+p0.25 = 30.00 
+p0.5 = 40.00 
+p0.75 = 50.00 
+p1.0 = 93.00 
 N=681</t>
   </si>
   <si>
@@ -70,11 +592,11 @@
   <si>
     <t>53.28 
  (14.14) 
-p=0.0: 4.00 
-p=0.25: 41.75 
-p=0.5: 55.00 
-p=0.75: 64.25 
-p=1.0: 100.00 
+p0.0 = 4.00 
+p0.25 = 41.75 
+p0.5 = 55.00 
+p0.75 = 64.25 
+p1.0 = 100.00 
 N=752</t>
   </si>
   <si>
@@ -85,16 +607,13 @@
 N=752</t>
   </si>
   <si>
-    <t>(65.0, 100.0]</t>
-  </si>
-  <si>
     <t>71.23 
  (18.46) 
-p=0.0: 5.00 
-p=0.25: 60.00 
-p=0.5: 75.00 
-p=0.75: 85.00 
-p=1.0: 100.00 
+p0.0 = 5.00 
+p0.25 = 60.00 
+p0.5 = 75.00 
+p0.75 = 85.00 
+p1.0 = 100.00 
 N=737</t>
   </si>
   <si>
@@ -105,19 +624,13 @@
 N=737</t>
   </si>
   <si>
-    <t>preference_label</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> are more curious to try Soap flavored Bertie Bott's Every Flavour Beans than Earthworm flavored Bertie Bott's Every Flavour Beans</t>
-  </si>
-  <si>
     <t>53.41 
  (23.06) 
-p=0.0: 0.00 
-p=0.25: 39.25 
-p=0.5: 55.00 
-p=0.75: 71.50 
-p=1.0: 98.00 
+p0.0 = 0.00 
+p0.25 = 39.25 
+p0.5 = 55.00 
+p0.75 = 71.50 
+p1.0 = 98.00 
 N=298</t>
   </si>
   <si>
@@ -128,16 +641,13 @@
 N=298</t>
   </si>
   <si>
-    <t xml:space="preserve"> believe climate change is a serious threat to human survival</t>
-  </si>
-  <si>
     <t>67.54 
  (19.08) 
-p=0.0: 10.00 
-p=0.25: 55.00 
-p=0.5: 70.00 
-p=0.75: 80.00 
-p=1.0: 100.00 
+p0.0 = 10.00 
+p0.25 = 55.00 
+p0.5 = 70.00 
+p0.75 = 80.00 
+p1.0 = 100.00 
 N=298</t>
   </si>
   <si>
@@ -148,16 +658,13 @@
 N=298</t>
   </si>
   <si>
-    <t xml:space="preserve"> believe it should be legal to use psychedelic drugs  (e.g. LSD)</t>
-  </si>
-  <si>
     <t>36.83 
  (24.10) 
-p=0.0: 0.00 
-p=0.25: 18.50 
-p=0.5: 30.00 
-p=0.75: 55.00 
-p=1.0: 100.00 
+p0.0 = 0.00 
+p0.25 = 18.50 
+p0.5 = 30.00 
+p0.75 = 55.00 
+p1.0 = 100.00 
 N=298</t>
   </si>
   <si>
@@ -168,29 +675,23 @@
 N=298</t>
   </si>
   <si>
-    <t xml:space="preserve"> can juggle with 3 balls</t>
-  </si>
-  <si>
     <t>29.89 
  (21.30) 
-p=0.0: 1.00 
-p=0.25: 12.25 
-p=0.5: 25.00 
-p=0.75: 42.75 
-p=1.0: 95.00 
+p0.0 = 1.00 
+p0.25 = 12.25 
+p0.5 = 25.00 
+p0.75 = 42.75 
+p1.0 = 95.00 
 N=298</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> own crypto currency (e.g. Bitcoin)</t>
   </si>
   <si>
     <t>26.88 
  (20.83) 
-p=0.0: 1.00 
-p=0.25: 10.00 
-p=0.5: 20.50 
-p=0.75: 40.00 
-p=1.0: 98.00 
+p0.0 = 1.00 
+p0.25 = 10.00 
+p0.5 = 20.50 
+p0.75 = 40.00 
+p1.0 = 98.00 
 N=298</t>
   </si>
   <si>
@@ -201,16 +702,13 @@
 N=298</t>
   </si>
   <si>
-    <t xml:space="preserve"> prefer red over blue</t>
-  </si>
-  <si>
     <t>49.74 
  (16.41) 
-p=0.0: 10.00 
-p=0.25: 40.00 
-p=0.5: 50.00 
-p=0.75: 59.25 
-p=1.0: 100.00 
+p0.0 = 10.00 
+p0.25 = 40.00 
+p0.5 = 50.00 
+p0.75 = 59.25 
+p1.0 = 100.00 
 N=298</t>
   </si>
   <si>
@@ -221,16 +719,13 @@
 N=298</t>
   </si>
   <si>
-    <t xml:space="preserve"> would feel safer in a self-driving car (rather than driving themselves)</t>
-  </si>
-  <si>
     <t>43.21 
  (24.09) 
-p=0.0: 3.00 
-p=0.25: 25.00 
-p=0.5: 40.00 
-p=0.75: 60.00 
-p=1.0: 100.00 
+p0.0 = 3.00 
+p0.25 = 25.00 
+p0.5 = 40.00 
+p0.75 = 60.00 
+p1.0 = 100.00 
 N=298</t>
   </si>
   <si>
@@ -241,16 +736,13 @@
 N=298</t>
   </si>
   <si>
-    <t xml:space="preserve"> would prefer Dick Cheney over Sarah Palin to be president of the United States</t>
-  </si>
-  <si>
     <t>52.82 
  (21.89) 
-p=0.0: 0.00 
-p=0.25: 40.00 
-p=0.5: 55.00 
-p=0.75: 67.75 
-p=1.0: 100.00 
+p0.0 = 0.00 
+p0.25 = 40.00 
+p0.5 = 55.00 
+p0.75 = 67.75 
+p1.0 = 100.00 
 N=298</t>
   </si>
   <si>
@@ -261,45 +753,33 @@
 N=298</t>
   </si>
   <si>
-    <t xml:space="preserve"> would rather have the superpower of flight than super strength</t>
-  </si>
-  <si>
     <t>58.49 
  (17.79) 
-p=0.0: 5.00 
-p=0.25: 50.00 
-p=0.5: 60.00 
-p=0.75: 70.00 
-p=1.0: 100.00 
+p0.0 = 5.00 
+p0.25 = 50.00 
+p0.5 = 60.00 
+p0.75 = 70.00 
+p1.0 = 100.00 
 N=298</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> would rather spend their evening going to a play at the theater than seeing a movie</t>
   </si>
   <si>
     <t>39.37 
  (22.78) 
-p=0.0: 4.00 
-p=0.25: 20.00 
-p=0.5: 35.00 
-p=0.75: 51.50 
-p=1.0: 100.00 
+p0.0 = 4.00 
+p0.25 = 20.00 
+p0.5 = 35.00 
+p0.75 = 51.50 
+p1.0 = 100.00 
 N=298</t>
-  </si>
-  <si>
-    <t>pooled</t>
-  </si>
-  <si>
-    <t>---</t>
   </si>
   <si>
     <t>45.82 
  (24.52) 
-p=0.0: 0.00 
-p=0.25: 25.00 
-p=0.5: 45.00 
-p=0.75: 65.00 
-p=1.0: 100.00 
+p0.0 = 0.00 
+p0.25 = 25.00 
+p0.5 = 45.00 
+p0.75 = 65.00 
+p1.0 = 100.00 
 N=2980</t>
   </si>
   <si>
@@ -659,7 +1139,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -771,89 +1251,465 @@
         <v>26</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="4" t="s">
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3" t="s">
         <v>46</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
   <si>
     <t>Test title</t>
   </si>
@@ -28,55 +28,82 @@
     <t>(-0.001, 25.0]</t>
   </si>
   <si>
+    <t>(25.0, 45.0]</t>
+  </si>
+  <si>
+    <t>(45.0, 65.0]</t>
+  </si>
+  <si>
+    <t>(65.0, 100.0]</t>
+  </si>
+  <si>
+    <t>preference_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> are more curious to try Soap flavored Bertie Bott's Every Flavour Beans than Earthworm flavored Bertie Bott's Every Flavour Beans</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> believe climate change is a serious threat to human survival</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> believe it should be legal to use psychedelic drugs  (e.g. LSD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can juggle with 3 balls</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> own crypto currency (e.g. Bitcoin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> prefer red over blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> would feel safer in a self-driving car (rather than driving themselves)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> would prefer Dick Cheney over Sarah Palin to be president of the United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> would rather have the superpower of flight than super strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> would rather spend their evening going to a play at the theater than seeing a movie</t>
+  </si>
+  <si>
+    <t>Pooled</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>sum1</t>
+  </si>
+  <si>
+    <t>Truth</t>
+  </si>
+  <si>
+    <t>sum2</t>
+  </si>
+  <si>
+    <t>SecondEstBetter</t>
+  </si>
+  <si>
+    <t>SecondEst</t>
+  </si>
+  <si>
+    <t>SecondEstBetter = 0</t>
+  </si>
+  <si>
+    <t>(25.0, 50.0]</t>
+  </si>
+  <si>
+    <t>(50.0, 65.0]</t>
+  </si>
+  <si>
     <t>(25.0, 47.0]</t>
   </si>
   <si>
     <t>(47.0, 65.0]</t>
-  </si>
-  <si>
-    <t>(65.0, 100.0]</t>
-  </si>
-  <si>
-    <t>preference_label</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> are more curious to try Soap flavored Bertie Bott's Every Flavour Beans than Earthworm flavored Bertie Bott's Every Flavour Beans</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> believe climate change is a serious threat to human survival</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> believe it should be legal to use psychedelic drugs  (e.g. LSD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> can juggle with 3 balls</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> own crypto currency (e.g. Bitcoin)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> prefer red over blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> would feel safer in a self-driving car (rather than driving themselves)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> would prefer Dick Cheney over Sarah Palin to be president of the United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> would rather have the superpower of flight than super strength</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> would rather spend their evening going to a play at the theater than seeing a movie</t>
-  </si>
-  <si>
-    <t>Pooled</t>
-  </si>
-  <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t>SecondEstBetter = 0</t>
   </si>
 </sst>
 </file>
@@ -425,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -463,339 +490,402 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2" t="s">
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="2" t="s">
+    <row r="23" spans="1:11">
+      <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="3" t="s">
+    <row r="24" spans="1:11">
+      <c r="A24" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="B25" s="1" t="s">
+    <row r="27" spans="1:11">
+      <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="B26" s="1" t="s">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="B29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="2" t="s">
+      <c r="C29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="B30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="3" t="s">
+    <row r="32" spans="1:11">
+      <c r="A32" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="2" t="s">
-        <v>7</v>
+      <c r="A33" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="3" t="s">
-        <v>11</v>
+      <c r="A37" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="2" t="s">
-        <v>18</v>
+      <c r="A45" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
-      <c r="B49" s="1" t="s">
+    <row r="53" spans="1:11">
+      <c r="B53" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="B50" s="1" t="s">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="B54" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="3" t="s">
-        <v>6</v>
+      <c r="B55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="B56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="3" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="3" t="s">
-        <v>13</v>
+      <c r="A63" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="2" t="s">
-        <v>18</v>
+      <c r="A69" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="3" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B49:K49"/>
-    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B53:K53"/>
+    <mergeCell ref="B54:K54"/>
+    <mergeCell ref="C55:D55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="204">
   <si>
     <t>Test title</t>
   </si>
   <si>
-    <t>SecondEstBetter = 1</t>
+    <t>% Second Estimate Preferred to First = 1</t>
   </si>
   <si>
     <t>FirstEst</t>
@@ -82,16 +82,461 @@
     <t>Truth</t>
   </si>
   <si>
+    <t>35.94 
+ (13.45) 
+28: 0.23 
+27: 0.20 
+30: 0.16 
+47: 0.15 
+25: 0.10 
+53: 0.06 
+58: 0.06 
+82: 0.02 
+65: 0.02 
+N=343</t>
+  </si>
+  <si>
+    <t>39.45 
+ (16.32) 
+30: 0.29 
+47: 0.14 
+25: 0.12 
+27: 0.11 
+28: 0.10 
+58: 0.07 
+53: 0.06 
+82: 0.06 
+65: 0.04 
+N=294</t>
+  </si>
+  <si>
+    <t>48.63 
+ (18.60) 
+30: 0.21 
+58: 0.15 
+65: 0.14 
+82: 0.11 
+53: 0.11 
+47: 0.09 
+27: 0.07 
+25: 0.07 
+28: 0.03 
+N=297</t>
+  </si>
+  <si>
+    <t>52.37 
+ (20.62) 
+82: 0.20 
+65: 0.17 
+30: 0.13 
+25: 0.12 
+58: 0.11 
+53: 0.11 
+47: 0.06 
+28: 0.05 
+27: 0.05 
+N=302</t>
+  </si>
+  <si>
+    <t>58.00 
+ (0.00) 
+58: 1.00 
+N=119</t>
+  </si>
+  <si>
+    <t>82.00 
+ (0.00) 
+82: 1.00 
+N=121</t>
+  </si>
+  <si>
+    <t>47.00 
+ (0.00) 
+47: 1.00 
+N=137</t>
+  </si>
+  <si>
+    <t>27.00 
+ (0.00) 
+27: 1.00 
+N=136</t>
+  </si>
+  <si>
+    <t>28.00 
+ (0.00) 
+28: 1.00 
+N=133</t>
+  </si>
+  <si>
+    <t>30.00 
+ (0.00) 
+30: 1.00 
+N=116</t>
+  </si>
+  <si>
+    <t>25.00 
+ (0.00) 
+25: 1.00 
+N=130</t>
+  </si>
+  <si>
+    <t>53.00 
+ (0.00) 
+53: 1.00 
+N=105</t>
+  </si>
+  <si>
+    <t>65.00 
+ (0.00) 
+65: 1.00 
+N=116</t>
+  </si>
+  <si>
+    <t>30.00 
+ (0.00) 
+30: 1.00 
+N=123</t>
+  </si>
+  <si>
+    <t>43.84 
+ (18.57) 
+30: 0.19 
+47: 0.11 
+27: 0.11 
+28: 0.11 
+25: 0.11 
+82: 0.10 
+58: 0.10 
+65: 0.09 
+53: 0.08 
+N=1236</t>
+  </si>
+  <si>
     <t>sum2</t>
   </si>
   <si>
-    <t>SecondEstBetter</t>
-  </si>
-  <si>
-    <t>SecondEst</t>
-  </si>
-  <si>
-    <t>SecondEstBetter = 0</t>
+    <t>% Second Estimate Preferred to First</t>
+  </si>
+  <si>
+    <t>Second Estimate</t>
+  </si>
+  <si>
+    <t>1.00 
+ (0.00) 
+1: 1.00 
+N=343</t>
+  </si>
+  <si>
+    <t>19.68 
+ (15.88) 
+p0.0 = 0.00 
+p0.25 = 9.00 
+p0.5 = 15.00 
+p0.75 = 25.00 
+p1.0 = 85.00 
+N=343</t>
+  </si>
+  <si>
+    <t>1.00 
+ (0.00) 
+1: 1.00 
+N=294</t>
+  </si>
+  <si>
+    <t>38.20 
+ (16.52) 
+p0.0 = 0.00 
+p0.25 = 25.00 
+p0.5 = 35.00 
+p0.75 = 50.00 
+p1.0 = 90.00 
+N=294</t>
+  </si>
+  <si>
+    <t>1.00 
+ (0.00) 
+1: 1.00 
+N=297</t>
+  </si>
+  <si>
+    <t>53.29 
+ (14.89) 
+p0.0 = 5.00 
+p0.25 = 41.00 
+p0.5 = 55.00 
+p0.75 = 65.00 
+p1.0 = 100.00 
+N=297</t>
+  </si>
+  <si>
+    <t>1.00 
+ (0.00) 
+1: 1.00 
+N=302</t>
+  </si>
+  <si>
+    <t>72.14 
+ (18.93) 
+p0.0 = 5.00 
+p0.25 = 60.00 
+p0.5 = 75.00 
+p0.75 = 85.00 
+p1.0 = 100.00 
+N=302</t>
+  </si>
+  <si>
+    <t>1.00 
+ (0.00) 
+1: 1.00 
+N=119</t>
+  </si>
+  <si>
+    <t>53.78 
+ (23.40) 
+p0.0 = 4.00 
+p0.25 = 35.00 
+p0.5 = 55.00 
+p0.75 = 73.50 
+p1.0 = 96.00 
+N=119</t>
+  </si>
+  <si>
+    <t>1.00 
+ (0.00) 
+1: 1.00 
+N=121</t>
+  </si>
+  <si>
+    <t>66.60 
+ (20.91) 
+p0.0 = 10.00 
+p0.25 = 53.00 
+p0.5 = 70.00 
+p0.75 = 80.00 
+p1.0 = 99.00 
+N=121</t>
+  </si>
+  <si>
+    <t>1.00 
+ (0.00) 
+1: 1.00 
+N=137</t>
+  </si>
+  <si>
+    <t>35.25 
+ (24.46) 
+p0.0 = 0.00 
+p0.25 = 18.00 
+p0.5 = 30.00 
+p0.75 = 50.00 
+p1.0 = 100.00 
+N=137</t>
+  </si>
+  <si>
+    <t>1.00 
+ (0.00) 
+1: 1.00 
+N=136</t>
+  </si>
+  <si>
+    <t>29.70 
+ (22.96) 
+p0.0 = 1.00 
+p0.25 = 10.75 
+p0.5 = 25.00 
+p0.75 = 45.75 
+p1.0 = 90.00 
+N=136</t>
+  </si>
+  <si>
+    <t>1.00 
+ (0.00) 
+1: 1.00 
+N=133</t>
+  </si>
+  <si>
+    <t>27.73 
+ (23.40) 
+p0.0 = 1.00 
+p0.25 = 8.00 
+p0.5 = 20.00 
+p0.75 = 45.00 
+p1.0 = 98.00 
+N=133</t>
+  </si>
+  <si>
+    <t>1.00 
+ (0.00) 
+1: 1.00 
+N=116</t>
+  </si>
+  <si>
+    <t>49.52 
+ (16.83) 
+p0.0 = 10.00 
+p0.25 = 40.00 
+p0.5 = 50.00 
+p0.75 = 56.00 
+p1.0 = 95.00 
+N=116</t>
+  </si>
+  <si>
+    <t>1.00 
+ (0.00) 
+1: 1.00 
+N=130</t>
+  </si>
+  <si>
+    <t>44.69 
+ (26.72) 
+p0.0 = 5.00 
+p0.25 = 24.25 
+p0.5 = 40.00 
+p0.75 = 65.00 
+p1.0 = 100.00 
+N=130</t>
+  </si>
+  <si>
+    <t>1.00 
+ (0.00) 
+1: 1.00 
+N=105</t>
+  </si>
+  <si>
+    <t>50.26 
+ (22.64) 
+p0.0 = 0.00 
+p0.25 = 35.00 
+p0.5 = 50.00 
+p0.75 = 65.00 
+p1.0 = 100.00 
+N=105</t>
+  </si>
+  <si>
+    <t>58.16 
+ (18.18) 
+p0.0 = 5.00 
+p0.25 = 50.00 
+p0.5 = 60.00 
+p0.75 = 70.00 
+p1.0 = 92.00 
+N=116</t>
+  </si>
+  <si>
+    <t>1.00 
+ (0.00) 
+1: 1.00 
+N=123</t>
+  </si>
+  <si>
+    <t>40.67 
+ (25.62) 
+p0.0 = 5.00 
+p0.25 = 20.00 
+p0.5 = 35.00 
+p0.75 = 53.00 
+p1.0 = 100.00 
+N=123</t>
+  </si>
+  <si>
+    <t>1.00 
+ (0.00) 
+1: 1.00 
+N=1236</t>
+  </si>
+  <si>
+    <t>44.98 
+ (25.70) 
+p0.0 = 0.00 
+p0.25 = 24.00 
+p0.5 = 45.00 
+p0.75 = 65.00 
+p1.0 = 100.00 
+N=1236</t>
+  </si>
+  <si>
+    <t>Least Squares Regression</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>0.554 
+ (0.033) 
+ t = 16.54, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.622 
+ (0.028) 
+ t = 22.24, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.569 
+ (0.031) 
+ t = 18.44, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.523 
+ (0.031) 
+ t = 16.61, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.580 
+ (0.045) 
+ t = 12.76, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.570 
+ (0.045) 
+ t = 12.62, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.664 
+ (0.040) 
+ t = 16.40, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.551 
+ (0.043) 
+ t = 12.88, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.586 
+ (0.043) 
+ t = 13.68, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.586 
+ (0.046) 
+ t = 12.76, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.485 
+ (0.044) 
+ t = 11.01, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.495 
+ (0.049) 
+ t = 10.10, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.578 
+ (0.046) 
+ t = 12.54, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.553 
+ (0.045) 
+ t = 12.28, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.566 
+ (0.016) 
+ t = 35.19, p = 0.000</t>
+  </si>
+  <si>
+    <t>% Second Estimate Preferred to First = 0</t>
   </si>
   <si>
     <t>(25.0, 50.0]</t>
@@ -100,10 +545,872 @@
     <t>(50.0, 65.0]</t>
   </si>
   <si>
+    <t>34.46 
+ (11.73) 
+28: 0.23 
+27: 0.21 
+30: 0.17 
+47: 0.13 
+25: 0.12 
+58: 0.06 
+53: 0.05 
+65: 0.02 
+82: 0.00 
+N=467</t>
+  </si>
+  <si>
+    <t>41.50 
+ (16.33) 
+30: 0.31 
+53: 0.12 
+25: 0.11 
+58: 0.09 
+65: 0.09 
+47: 0.09 
+28: 0.07 
+27: 0.07 
+82: 0.04 
+N=631</t>
+  </si>
+  <si>
+    <t>53.30 
+ (18.43) 
+65: 0.20 
+30: 0.18 
+82: 0.16 
+53: 0.16 
+58: 0.12 
+47: 0.08 
+27: 0.04 
+25: 0.04 
+28: 0.02 
+N=211</t>
+  </si>
+  <si>
+    <t>57.24 
+ (19.39) 
+82: 0.26 
+65: 0.17 
+58: 0.15 
+53: 0.14 
+30: 0.10 
+25: 0.08 
+47: 0.06 
+27: 0.03 
+28: 0.02 
+N=435</t>
+  </si>
+  <si>
+    <t>58.00 
+ (0.00) 
+58: 1.00 
+N=179</t>
+  </si>
+  <si>
+    <t>82.00 
+ (0.00) 
+82: 1.00 
+N=177</t>
+  </si>
+  <si>
+    <t>47.00 
+ (0.00) 
+47: 1.00 
+N=161</t>
+  </si>
+  <si>
+    <t>27.00 
+ (0.00) 
+27: 1.00 
+N=162</t>
+  </si>
+  <si>
+    <t>28.00 
+ (0.00) 
+28: 1.00 
+N=165</t>
+  </si>
+  <si>
+    <t>30.00 
+ (0.00) 
+30: 1.00 
+N=182</t>
+  </si>
+  <si>
+    <t>25.00 
+ (0.00) 
+25: 1.00 
+N=168</t>
+  </si>
+  <si>
+    <t>53.00 
+ (0.00) 
+53: 1.00 
+N=193</t>
+  </si>
+  <si>
+    <t>65.00 
+ (0.00) 
+65: 1.00 
+N=182</t>
+  </si>
+  <si>
+    <t>30.00 
+ (0.00) 
+30: 1.00 
+N=175</t>
+  </si>
+  <si>
+    <t>44.97 
+ (18.65) 
+30: 0.20 
+53: 0.11 
+65: 0.10 
+58: 0.10 
+82: 0.10 
+25: 0.10 
+28: 0.09 
+27: 0.09 
+47: 0.09 
+N=1744</t>
+  </si>
+  <si>
+    <t>0.00 
+ (0.00) 
+0: 1.00 
+N=467</t>
+  </si>
+  <si>
+    <t>21.47 
+ (14.54) 
+p0.0 = 0.00 
+p0.25 = 10.00 
+p0.5 = 18.00 
+p0.75 = 30.00 
+p1.0 = 80.00 
+N=467</t>
+  </si>
+  <si>
+    <t>0.00 
+ (0.00) 
+0: 1.00 
+N=631</t>
+  </si>
+  <si>
+    <t>45.14 
+ (14.55) 
+p0.0 = 4.00 
+p0.25 = 35.00 
+p0.5 = 45.00 
+p0.75 = 55.00 
+p1.0 = 93.00 
+N=631</t>
+  </si>
+  <si>
+    <t>0.00 
+ (0.00) 
+0: 1.00 
+N=211</t>
+  </si>
+  <si>
+    <t>55.55 
+ (12.93) 
+p0.0 = 25.00 
+p0.25 = 46.00 
+p0.5 = 55.00 
+p0.75 = 69.00 
+p1.0 = 85.00 
+N=211</t>
+  </si>
+  <si>
+    <t>0.00 
+ (0.00) 
+0: 1.00 
+N=435</t>
+  </si>
+  <si>
+    <t>70.59 
+ (18.12) 
+p0.0 = 10.00 
+p0.25 = 60.00 
+p0.5 = 75.00 
+p0.75 = 85.00 
+p1.0 = 100.00 
+N=435</t>
+  </si>
+  <si>
+    <t>0.00 
+ (0.00) 
+0: 1.00 
+N=179</t>
+  </si>
+  <si>
+    <t>53.16 
+ (22.88) 
+p0.0 = 0.00 
+p0.25 = 40.00 
+p0.5 = 55.00 
+p0.75 = 70.00 
+p1.0 = 98.00 
+N=179</t>
+  </si>
+  <si>
+    <t>0.00 
+ (0.00) 
+0: 1.00 
+N=177</t>
+  </si>
+  <si>
+    <t>68.18 
+ (17.75) 
+p0.0 = 10.00 
+p0.25 = 60.00 
+p0.5 = 70.00 
+p0.75 = 80.00 
+p1.0 = 100.00 
+N=177</t>
+  </si>
+  <si>
+    <t>0.00 
+ (0.00) 
+0: 1.00 
+N=161</t>
+  </si>
+  <si>
+    <t>38.17 
+ (23.78) 
+p0.0 = 2.00 
+p0.25 = 20.00 
+p0.5 = 30.00 
+p0.75 = 60.00 
+p1.0 = 95.00 
+N=161</t>
+  </si>
+  <si>
+    <t>0.00 
+ (0.00) 
+0: 1.00 
+N=162</t>
+  </si>
+  <si>
+    <t>30.05 
+ (19.87) 
+p0.0 = 1.00 
+p0.25 = 15.00 
+p0.5 = 26.00 
+p0.75 = 40.75 
+p1.0 = 95.00 
+N=162</t>
+  </si>
+  <si>
+    <t>0.00 
+ (0.00) 
+0: 1.00 
+N=165</t>
+  </si>
+  <si>
+    <t>26.19 
+ (18.55) 
+p0.0 = 1.00 
+p0.25 = 12.00 
+p0.5 = 21.00 
+p0.75 = 40.00 
+p1.0 = 90.00 
+N=165</t>
+  </si>
+  <si>
+    <t>0.00 
+ (0.00) 
+0: 1.00 
+N=182</t>
+  </si>
+  <si>
+    <t>49.88 
+ (16.17) 
+p0.0 = 10.00 
+p0.25 = 40.00 
+p0.5 = 50.00 
+p0.75 = 60.00 
+p1.0 = 100.00 
+N=182</t>
+  </si>
+  <si>
+    <t>0.00 
+ (0.00) 
+0: 1.00 
+N=168</t>
+  </si>
+  <si>
+    <t>42.07 
+ (21.85) 
+p0.0 = 3.00 
+p0.25 = 25.00 
+p0.5 = 40.00 
+p0.75 = 60.00 
+p1.0 = 100.00 
+N=168</t>
+  </si>
+  <si>
+    <t>0.00 
+ (0.00) 
+0: 1.00 
+N=193</t>
+  </si>
+  <si>
+    <t>54.21 
+ (21.40) 
+p0.0 = 2.00 
+p0.25 = 40.00 
+p0.5 = 55.00 
+p0.75 = 70.00 
+p1.0 = 100.00 
+N=193</t>
+  </si>
+  <si>
+    <t>58.70 
+ (17.58) 
+p0.0 = 10.00 
+p0.25 = 50.00 
+p0.5 = 60.00 
+p0.75 = 70.00 
+p1.0 = 100.00 
+N=182</t>
+  </si>
+  <si>
+    <t>0.00 
+ (0.00) 
+0: 1.00 
+N=175</t>
+  </si>
+  <si>
+    <t>38.45 
+ (20.58) 
+p0.0 = 4.00 
+p0.25 = 22.50 
+p0.5 = 35.00 
+p0.75 = 51.00 
+p1.0 = 99.00 
+N=175</t>
+  </si>
+  <si>
+    <t>0.00 
+ (0.00) 
+0: 1.00 
+N=1744</t>
+  </si>
+  <si>
+    <t>46.41 
+ (23.63) 
+p0.0 = 0.00 
+p0.25 = 30.00 
+p0.5 = 46.00 
+p0.75 = 63.00 
+p1.0 = 100.00 
+N=1744</t>
+  </si>
+  <si>
+    <t>0.668 
+ (0.026) 
+ t = 25.72, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.463 
+ (0.020) 
+ t = 23.46, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.488 
+ (0.038) 
+ t = 12.89, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.611 
+ (0.027) 
+ t = 22.87, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.581 
+ (0.037) 
+ t = 15.71, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.497 
+ (0.038) 
+ t = 13.19, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.540 
+ (0.039) 
+ t = 13.72, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.593 
+ (0.039) 
+ t = 15.30, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.588 
+ (0.038) 
+ t = 15.30, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.467 
+ (0.037) 
+ t = 12.59, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.542 
+ (0.039) 
+ t = 14.05, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.627 
+ (0.035) 
+ t = 17.96, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.571 
+ (0.037) 
+ t = 15.53, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.571 
+ (0.038) 
+ t = 15.23, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.558 
+ (0.014) 
+ t = 40.64, p = 0.000</t>
+  </si>
+  <si>
     <t>(25.0, 47.0]</t>
   </si>
   <si>
     <t>(47.0, 65.0]</t>
+  </si>
+  <si>
+    <t>35.09 
+ (12.50) 
+28: 0.23 
+27: 0.20 
+30: 0.17 
+47: 0.14 
+25: 0.11 
+58: 0.06 
+53: 0.05 
+65: 0.02 
+82: 0.01 
+N=810</t>
+  </si>
+  <si>
+    <t>39.03 
+ (15.66) 
+30: 0.29 
+25: 0.13 
+47: 0.13 
+27: 0.10 
+28: 0.10 
+53: 0.08 
+58: 0.08 
+82: 0.05 
+65: 0.04 
+N=681</t>
+  </si>
+  <si>
+    <t>49.06 
+ (18.31) 
+30: 0.24 
+65: 0.17 
+53: 0.14 
+58: 0.13 
+82: 0.11 
+47: 0.07 
+25: 0.06 
+27: 0.05 
+28: 0.03 
+N=752</t>
+  </si>
+  <si>
+    <t>55.24 
+ (20.03) 
+82: 0.24 
+65: 0.17 
+58: 0.14 
+53: 0.13 
+30: 0.11 
+25: 0.09 
+47: 0.06 
+27: 0.04 
+28: 0.03 
+N=737</t>
+  </si>
+  <si>
+    <t>58.00 
+ (0.00) 
+58: 1.00 
+N=298</t>
+  </si>
+  <si>
+    <t>82.00 
+ (0.00) 
+82: 1.00 
+N=298</t>
+  </si>
+  <si>
+    <t>47.00 
+ (0.00) 
+47: 1.00 
+N=298</t>
+  </si>
+  <si>
+    <t>27.00 
+ (0.00) 
+27: 1.00 
+N=298</t>
+  </si>
+  <si>
+    <t>28.00 
+ (0.00) 
+28: 1.00 
+N=298</t>
+  </si>
+  <si>
+    <t>30.00 
+ (0.00) 
+30: 1.00 
+N=298</t>
+  </si>
+  <si>
+    <t>25.00 
+ (0.00) 
+25: 1.00 
+N=298</t>
+  </si>
+  <si>
+    <t>53.00 
+ (0.00) 
+53: 1.00 
+N=298</t>
+  </si>
+  <si>
+    <t>65.00 
+ (0.00) 
+65: 1.00 
+N=298</t>
+  </si>
+  <si>
+    <t>44.50 
+ (18.62) 
+30: 0.20 
+65: 0.10 
+53: 0.10 
+47: 0.10 
+27: 0.10 
+25: 0.10 
+82: 0.10 
+58: 0.10 
+28: 0.10 
+N=2980</t>
+  </si>
+  <si>
+    <t>0.42 
+ (0.49) 
+0: 0.58 
+1: 0.42 
+N=810</t>
+  </si>
+  <si>
+    <t>20.71 
+ (15.14) 
+p0.0 = 0.00 
+p0.25 = 10.00 
+p0.5 = 15.00 
+p0.75 = 30.00 
+p1.0 = 85.00 
+N=810</t>
+  </si>
+  <si>
+    <t>0.44 
+ (0.50) 
+0: 0.56 
+1: 0.44 
+N=681</t>
+  </si>
+  <si>
+    <t>39.94 
+ (14.97) 
+p0.0 = 0.00 
+p0.25 = 30.00 
+p0.5 = 40.00 
+p0.75 = 50.00 
+p1.0 = 93.00 
+N=681</t>
+  </si>
+  <si>
+    <t>0.39 
+ (0.49) 
+0: 0.61 
+1: 0.39 
+N=752</t>
+  </si>
+  <si>
+    <t>53.28 
+ (14.14) 
+p0.0 = 4.00 
+p0.25 = 41.75 
+p0.5 = 55.00 
+p0.75 = 64.25 
+p1.0 = 100.00 
+N=752</t>
+  </si>
+  <si>
+    <t>0.41 
+ (0.49) 
+0: 0.59 
+1: 0.41 
+N=737</t>
+  </si>
+  <si>
+    <t>71.23 
+ (18.46) 
+p0.0 = 5.00 
+p0.25 = 60.00 
+p0.5 = 75.00 
+p0.75 = 85.00 
+p1.0 = 100.00 
+N=737</t>
+  </si>
+  <si>
+    <t>0.40 
+ (0.49) 
+0: 0.60 
+1: 0.40 
+N=298</t>
+  </si>
+  <si>
+    <t>53.41 
+ (23.06) 
+p0.0 = 0.00 
+p0.25 = 39.25 
+p0.5 = 55.00 
+p0.75 = 71.50 
+p1.0 = 98.00 
+N=298</t>
+  </si>
+  <si>
+    <t>0.41 
+ (0.49) 
+0: 0.59 
+1: 0.41 
+N=298</t>
+  </si>
+  <si>
+    <t>67.54 
+ (19.08) 
+p0.0 = 10.00 
+p0.25 = 55.00 
+p0.5 = 70.00 
+p0.75 = 80.00 
+p1.0 = 100.00 
+N=298</t>
+  </si>
+  <si>
+    <t>0.46 
+ (0.50) 
+0: 0.54 
+1: 0.46 
+N=298</t>
+  </si>
+  <si>
+    <t>36.83 
+ (24.10) 
+p0.0 = 0.00 
+p0.25 = 18.50 
+p0.5 = 30.00 
+p0.75 = 55.00 
+p1.0 = 100.00 
+N=298</t>
+  </si>
+  <si>
+    <t>29.89 
+ (21.30) 
+p0.0 = 1.00 
+p0.25 = 12.25 
+p0.5 = 25.00 
+p0.75 = 42.75 
+p1.0 = 95.00 
+N=298</t>
+  </si>
+  <si>
+    <t>0.45 
+ (0.50) 
+0: 0.55 
+1: 0.45 
+N=298</t>
+  </si>
+  <si>
+    <t>26.88 
+ (20.83) 
+p0.0 = 1.00 
+p0.25 = 10.00 
+p0.5 = 20.50 
+p0.75 = 40.00 
+p1.0 = 98.00 
+N=298</t>
+  </si>
+  <si>
+    <t>0.39 
+ (0.49) 
+0: 0.61 
+1: 0.39 
+N=298</t>
+  </si>
+  <si>
+    <t>49.74 
+ (16.41) 
+p0.0 = 10.00 
+p0.25 = 40.00 
+p0.5 = 50.00 
+p0.75 = 59.25 
+p1.0 = 100.00 
+N=298</t>
+  </si>
+  <si>
+    <t>0.44 
+ (0.50) 
+0: 0.56 
+1: 0.44 
+N=298</t>
+  </si>
+  <si>
+    <t>43.21 
+ (24.09) 
+p0.0 = 3.00 
+p0.25 = 25.00 
+p0.5 = 40.00 
+p0.75 = 60.00 
+p1.0 = 100.00 
+N=298</t>
+  </si>
+  <si>
+    <t>0.35 
+ (0.48) 
+0: 0.65 
+1: 0.35 
+N=298</t>
+  </si>
+  <si>
+    <t>52.82 
+ (21.89) 
+p0.0 = 0.00 
+p0.25 = 40.00 
+p0.5 = 55.00 
+p0.75 = 67.75 
+p1.0 = 100.00 
+N=298</t>
+  </si>
+  <si>
+    <t>58.49 
+ (17.79) 
+p0.0 = 5.00 
+p0.25 = 50.00 
+p0.5 = 60.00 
+p0.75 = 70.00 
+p1.0 = 100.00 
+N=298</t>
+  </si>
+  <si>
+    <t>39.37 
+ (22.78) 
+p0.0 = 4.00 
+p0.25 = 20.00 
+p0.5 = 35.00 
+p0.75 = 51.50 
+p1.0 = 100.00 
+N=298</t>
+  </si>
+  <si>
+    <t>0.41 
+ (0.49) 
+0: 0.59 
+1: 0.41 
+N=2980</t>
+  </si>
+  <si>
+    <t>45.82 
+ (24.52) 
+p0.0 = 0.00 
+p0.25 = 25.00 
+p0.5 = 45.00 
+p0.75 = 65.00 
+p1.0 = 100.00 
+N=2980</t>
+  </si>
+  <si>
+    <t>0.620 
+ (0.020) 
+ t = 30.33, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.508 
+ (0.019) 
+ t = 26.73, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.533 
+ (0.019) 
+ t = 28.62, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.575 
+ (0.019) 
+ t = 29.78, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.581 
+ (0.029) 
+ t = 20.27, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.527 
+ (0.029) 
+ t = 18.19, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.597 
+ (0.028) 
+ t = 20.99, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.574 
+ (0.029) 
+ t = 20.00, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.587 
+ (0.029) 
+ t = 20.56, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.513 
+ (0.029) 
+ t = 17.70, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.517 
+ (0.029) 
+ t = 17.82, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.564 
+ (0.029) 
+ t = 19.59, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.561 
+ (0.010) 
+ t = 56.03, p = 0.000</t>
   </si>
 </sst>
 </file>
@@ -147,7 +1454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -157,6 +1464,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,7 +1762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -461,431 +1771,953 @@
     <col min="1" max="100" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:5">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:5">
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="E3" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>39</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="B18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="B20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="B21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="B24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="B27" s="1" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11">
+    </row>
+    <row r="28" spans="1:5">
       <c r="B28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="E28" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="B29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="B51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="B52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="B53" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="B30" s="1" t="s">
+      <c r="C53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="2" t="s">
+      <c r="C54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="3" t="s">
+    <row r="56" spans="1:5">
+      <c r="A56" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="3" t="s">
+      <c r="B56" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="2" t="s">
+      <c r="B59" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="3" t="s">
+    <row r="62" spans="1:5">
+      <c r="A62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="3" t="s">
+      <c r="B62" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="3" t="s">
+      <c r="B63" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="3" t="s">
+      <c r="B64" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="3" t="s">
+      <c r="B65" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="3" t="s">
+      <c r="B66" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="3" t="s">
+      <c r="B67" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="3" t="s">
+      <c r="B68" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="3" t="s">
+      <c r="B69" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="3" t="s">
+      <c r="B70" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="2" t="s">
+      <c r="B71" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="3" t="s">
+    <row r="74" spans="1:5">
+      <c r="A74" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="B53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="B54" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="B55" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="B56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="3" t="s">
-        <v>19</v>
+      <c r="B74" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B53:K53"/>
-    <mergeCell ref="B54:K54"/>
-    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="C53:D53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestWS" sheetId="1" r:id="rId1"/>
+    <sheet name="TestWS2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="163">
   <si>
     <t>Test title</t>
   </si>
@@ -455,87 +456,6 @@
 N=1236</t>
   </si>
   <si>
-    <t>Least Squares Regression</t>
-  </si>
-  <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>0.554 
- (0.033) 
- t = 16.54, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.622 
- (0.028) 
- t = 22.24, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.569 
- (0.031) 
- t = 18.44, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.523 
- (0.031) 
- t = 16.61, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.580 
- (0.045) 
- t = 12.76, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.570 
- (0.045) 
- t = 12.62, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.664 
- (0.040) 
- t = 16.40, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.551 
- (0.043) 
- t = 12.88, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.586 
- (0.043) 
- t = 13.68, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.586 
- (0.046) 
- t = 12.76, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.485 
- (0.044) 
- t = 11.01, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.495 
- (0.049) 
- t = 10.10, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.578 
- (0.046) 
- t = 12.54, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.553 
- (0.045) 
- t = 12.28, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.566 
- (0.016) 
- t = 35.19, p = 0.000</t>
-  </si>
-  <si>
     <t>% Second Estimate Preferred to First = 0</t>
   </si>
   <si>
@@ -909,81 +829,6 @@
 N=1744</t>
   </si>
   <si>
-    <t>0.668 
- (0.026) 
- t = 25.72, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.463 
- (0.020) 
- t = 23.46, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.488 
- (0.038) 
- t = 12.89, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.611 
- (0.027) 
- t = 22.87, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.581 
- (0.037) 
- t = 15.71, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.497 
- (0.038) 
- t = 13.19, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.540 
- (0.039) 
- t = 13.72, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.593 
- (0.039) 
- t = 15.30, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.588 
- (0.038) 
- t = 15.30, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.467 
- (0.037) 
- t = 12.59, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.542 
- (0.039) 
- t = 14.05, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.627 
- (0.035) 
- t = 17.96, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.571 
- (0.037) 
- t = 15.53, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.571 
- (0.038) 
- t = 15.23, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.558 
- (0.014) 
- t = 40.64, p = 0.000</t>
-  </si>
-  <si>
     <t>(25.0, 47.0]</t>
   </si>
   <si>
@@ -1348,64 +1193,13 @@
 N=2980</t>
   </si>
   <si>
-    <t>0.620 
- (0.020) 
- t = 30.33, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.508 
- (0.019) 
- t = 26.73, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.533 
- (0.019) 
- t = 28.62, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.575 
- (0.019) 
- t = 29.78, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.581 
- (0.029) 
- t = 20.27, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.527 
- (0.029) 
- t = 18.19, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.597 
- (0.028) 
- t = 20.99, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.574 
- (0.029) 
- t = 20.00, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.587 
- (0.029) 
- t = 20.56, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.513 
- (0.029) 
- t = 17.70, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.517 
- (0.029) 
- t = 17.82, p = 0.000</t>
-  </si>
-  <si>
-    <t>0.564 
- (0.029) 
- t = 19.59, p = 0.000</t>
+    <t>Test title 2</t>
+  </si>
+  <si>
+    <t>Least Squares Regression</t>
+  </si>
+  <si>
+    <t>Constant</t>
   </si>
   <si>
     <t>0.561 
@@ -1762,7 +1556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A2:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1771,954 +1565,844 @@
     <col min="1" max="100" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
+    <row r="2" spans="1:4">
+      <c r="B2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:4">
       <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="B27" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5">
+    </row>
+    <row r="28" spans="1:4">
       <c r="B28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="B29" s="1" t="s">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="1" t="s">
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="B33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D33" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="4" t="s">
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="4" t="s">
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="4" t="s">
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="4" t="s">
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="4" t="s">
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="4" t="s">
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="B51" s="1" t="s">
+    </row>
+    <row r="52" spans="1:4">
+      <c r="B52" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="B52" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:5">
+    </row>
+    <row r="53" spans="1:4">
       <c r="B53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="B54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="B54" s="1" t="s">
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="B55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="2" t="s">
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="3" t="s">
+    <row r="57" spans="1:4">
+      <c r="A57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B57" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B57" s="4" t="s">
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="3" t="s">
+      <c r="D69" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" s="4" t="s">
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" s="4" t="s">
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B66" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="C54:D54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="100" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="B2" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -84,132 +84,62 @@
   </si>
   <si>
     <t>35.94 
- (13.45) 
-28: 0.23 
-27: 0.20 
-30: 0.16 
-47: 0.15 
-25: 0.10 
-53: 0.06 
-58: 0.06 
-82: 0.02 
-65: 0.02 
 N=343</t>
   </si>
   <si>
     <t>39.45 
- (16.32) 
-30: 0.29 
-47: 0.14 
-25: 0.12 
-27: 0.11 
-28: 0.10 
-58: 0.07 
-53: 0.06 
-82: 0.06 
-65: 0.04 
 N=294</t>
   </si>
   <si>
     <t>48.63 
- (18.60) 
-30: 0.21 
-58: 0.15 
-65: 0.14 
-82: 0.11 
-53: 0.11 
-47: 0.09 
-27: 0.07 
-25: 0.07 
-28: 0.03 
 N=297</t>
   </si>
   <si>
     <t>52.37 
- (20.62) 
-82: 0.20 
-65: 0.17 
-30: 0.13 
-25: 0.12 
-58: 0.11 
-53: 0.11 
-47: 0.06 
-28: 0.05 
-27: 0.05 
 N=302</t>
   </si>
   <si>
     <t>58.00 
- (0.00) 
-58: 1.00 
 N=119</t>
   </si>
   <si>
     <t>82.00 
- (0.00) 
-82: 1.00 
 N=121</t>
   </si>
   <si>
     <t>47.00 
- (0.00) 
-47: 1.00 
 N=137</t>
   </si>
   <si>
     <t>27.00 
- (0.00) 
-27: 1.00 
 N=136</t>
   </si>
   <si>
     <t>28.00 
- (0.00) 
-28: 1.00 
 N=133</t>
   </si>
   <si>
     <t>30.00 
- (0.00) 
-30: 1.00 
 N=116</t>
   </si>
   <si>
     <t>25.00 
- (0.00) 
-25: 1.00 
 N=130</t>
   </si>
   <si>
     <t>53.00 
- (0.00) 
-53: 1.00 
 N=105</t>
   </si>
   <si>
     <t>65.00 
- (0.00) 
-65: 1.00 
 N=116</t>
   </si>
   <si>
     <t>30.00 
- (0.00) 
-30: 1.00 
 N=123</t>
   </si>
   <si>
     <t>43.84 
- (18.57) 
-30: 0.19 
-47: 0.11 
-27: 0.11 
-28: 0.11 
-25: 0.11 
-82: 0.10 
-58: 0.10 
-65: 0.09 
-53: 0.08 
 N=1236</t>
   </si>
   <si>
@@ -223,13 +153,13 @@
   </si>
   <si>
     <t>1.00 
- (0.00) 
+(0.00) 
 1: 1.00 
 N=343</t>
   </si>
   <si>
     <t>19.68 
- (15.88) 
+(15.88) 
 p0.0 = 0.00 
 p0.25 = 9.00 
 p0.5 = 15.00 
@@ -239,13 +169,13 @@
   </si>
   <si>
     <t>1.00 
- (0.00) 
+(0.00) 
 1: 1.00 
 N=294</t>
   </si>
   <si>
     <t>38.20 
- (16.52) 
+(16.52) 
 p0.0 = 0.00 
 p0.25 = 25.00 
 p0.5 = 35.00 
@@ -255,13 +185,13 @@
   </si>
   <si>
     <t>1.00 
- (0.00) 
+(0.00) 
 1: 1.00 
 N=297</t>
   </si>
   <si>
     <t>53.29 
- (14.89) 
+(14.89) 
 p0.0 = 5.00 
 p0.25 = 41.00 
 p0.5 = 55.00 
@@ -271,13 +201,13 @@
   </si>
   <si>
     <t>1.00 
- (0.00) 
+(0.00) 
 1: 1.00 
 N=302</t>
   </si>
   <si>
     <t>72.14 
- (18.93) 
+(18.93) 
 p0.0 = 5.00 
 p0.25 = 60.00 
 p0.5 = 75.00 
@@ -287,13 +217,13 @@
   </si>
   <si>
     <t>1.00 
- (0.00) 
+(0.00) 
 1: 1.00 
 N=119</t>
   </si>
   <si>
     <t>53.78 
- (23.40) 
+(23.40) 
 p0.0 = 4.00 
 p0.25 = 35.00 
 p0.5 = 55.00 
@@ -303,13 +233,13 @@
   </si>
   <si>
     <t>1.00 
- (0.00) 
+(0.00) 
 1: 1.00 
 N=121</t>
   </si>
   <si>
     <t>66.60 
- (20.91) 
+(20.91) 
 p0.0 = 10.00 
 p0.25 = 53.00 
 p0.5 = 70.00 
@@ -319,13 +249,13 @@
   </si>
   <si>
     <t>1.00 
- (0.00) 
+(0.00) 
 1: 1.00 
 N=137</t>
   </si>
   <si>
     <t>35.25 
- (24.46) 
+(24.46) 
 p0.0 = 0.00 
 p0.25 = 18.00 
 p0.5 = 30.00 
@@ -335,13 +265,13 @@
   </si>
   <si>
     <t>1.00 
- (0.00) 
+(0.00) 
 1: 1.00 
 N=136</t>
   </si>
   <si>
     <t>29.70 
- (22.96) 
+(22.96) 
 p0.0 = 1.00 
 p0.25 = 10.75 
 p0.5 = 25.00 
@@ -351,13 +281,13 @@
   </si>
   <si>
     <t>1.00 
- (0.00) 
+(0.00) 
 1: 1.00 
 N=133</t>
   </si>
   <si>
     <t>27.73 
- (23.40) 
+(23.40) 
 p0.0 = 1.00 
 p0.25 = 8.00 
 p0.5 = 20.00 
@@ -367,13 +297,13 @@
   </si>
   <si>
     <t>1.00 
- (0.00) 
+(0.00) 
 1: 1.00 
 N=116</t>
   </si>
   <si>
     <t>49.52 
- (16.83) 
+(16.83) 
 p0.0 = 10.00 
 p0.25 = 40.00 
 p0.5 = 50.00 
@@ -383,13 +313,13 @@
   </si>
   <si>
     <t>1.00 
- (0.00) 
+(0.00) 
 1: 1.00 
 N=130</t>
   </si>
   <si>
     <t>44.69 
- (26.72) 
+(26.72) 
 p0.0 = 5.00 
 p0.25 = 24.25 
 p0.5 = 40.00 
@@ -399,13 +329,13 @@
   </si>
   <si>
     <t>1.00 
- (0.00) 
+(0.00) 
 1: 1.00 
 N=105</t>
   </si>
   <si>
     <t>50.26 
- (22.64) 
+(22.64) 
 p0.0 = 0.00 
 p0.25 = 35.00 
 p0.5 = 50.00 
@@ -415,7 +345,7 @@
   </si>
   <si>
     <t>58.16 
- (18.18) 
+(18.18) 
 p0.0 = 5.00 
 p0.25 = 50.00 
 p0.5 = 60.00 
@@ -425,13 +355,13 @@
   </si>
   <si>
     <t>1.00 
- (0.00) 
+(0.00) 
 1: 1.00 
 N=123</t>
   </si>
   <si>
     <t>40.67 
- (25.62) 
+(25.62) 
 p0.0 = 5.00 
 p0.25 = 20.00 
 p0.5 = 35.00 
@@ -441,13 +371,13 @@
   </si>
   <si>
     <t>1.00 
- (0.00) 
+(0.00) 
 1: 1.00 
 N=1236</t>
   </si>
   <si>
     <t>44.98 
- (25.70) 
+(25.70) 
 p0.0 = 0.00 
 p0.25 = 24.00 
 p0.5 = 45.00 
@@ -466,143 +396,73 @@
   </si>
   <si>
     <t>34.46 
- (11.73) 
-28: 0.23 
-27: 0.21 
-30: 0.17 
-47: 0.13 
-25: 0.12 
-58: 0.06 
-53: 0.05 
-65: 0.02 
-82: 0.00 
 N=467</t>
   </si>
   <si>
     <t>41.50 
- (16.33) 
-30: 0.31 
-53: 0.12 
-25: 0.11 
-58: 0.09 
-65: 0.09 
-47: 0.09 
-28: 0.07 
-27: 0.07 
-82: 0.04 
 N=631</t>
   </si>
   <si>
     <t>53.30 
- (18.43) 
-65: 0.20 
-30: 0.18 
-82: 0.16 
-53: 0.16 
-58: 0.12 
-47: 0.08 
-27: 0.04 
-25: 0.04 
-28: 0.02 
 N=211</t>
   </si>
   <si>
     <t>57.24 
- (19.39) 
-82: 0.26 
-65: 0.17 
-58: 0.15 
-53: 0.14 
-30: 0.10 
-25: 0.08 
-47: 0.06 
-27: 0.03 
-28: 0.02 
 N=435</t>
   </si>
   <si>
     <t>58.00 
- (0.00) 
-58: 1.00 
 N=179</t>
   </si>
   <si>
     <t>82.00 
- (0.00) 
-82: 1.00 
 N=177</t>
   </si>
   <si>
     <t>47.00 
- (0.00) 
-47: 1.00 
 N=161</t>
   </si>
   <si>
     <t>27.00 
- (0.00) 
-27: 1.00 
 N=162</t>
   </si>
   <si>
     <t>28.00 
- (0.00) 
-28: 1.00 
 N=165</t>
   </si>
   <si>
     <t>30.00 
- (0.00) 
-30: 1.00 
 N=182</t>
   </si>
   <si>
     <t>25.00 
- (0.00) 
-25: 1.00 
 N=168</t>
   </si>
   <si>
     <t>53.00 
- (0.00) 
-53: 1.00 
 N=193</t>
   </si>
   <si>
     <t>65.00 
- (0.00) 
-65: 1.00 
 N=182</t>
   </si>
   <si>
     <t>30.00 
- (0.00) 
-30: 1.00 
 N=175</t>
   </si>
   <si>
     <t>44.97 
- (18.65) 
-30: 0.20 
-53: 0.11 
-65: 0.10 
-58: 0.10 
-82: 0.10 
-25: 0.10 
-28: 0.09 
-27: 0.09 
-47: 0.09 
 N=1744</t>
   </si>
   <si>
     <t>0.00 
- (0.00) 
+(0.00) 
 0: 1.00 
 N=467</t>
   </si>
   <si>
     <t>21.47 
- (14.54) 
+(14.54) 
 p0.0 = 0.00 
 p0.25 = 10.00 
 p0.5 = 18.00 
@@ -612,13 +472,13 @@
   </si>
   <si>
     <t>0.00 
- (0.00) 
+(0.00) 
 0: 1.00 
 N=631</t>
   </si>
   <si>
     <t>45.14 
- (14.55) 
+(14.55) 
 p0.0 = 4.00 
 p0.25 = 35.00 
 p0.5 = 45.00 
@@ -628,13 +488,13 @@
   </si>
   <si>
     <t>0.00 
- (0.00) 
+(0.00) 
 0: 1.00 
 N=211</t>
   </si>
   <si>
     <t>55.55 
- (12.93) 
+(12.93) 
 p0.0 = 25.00 
 p0.25 = 46.00 
 p0.5 = 55.00 
@@ -644,13 +504,13 @@
   </si>
   <si>
     <t>0.00 
- (0.00) 
+(0.00) 
 0: 1.00 
 N=435</t>
   </si>
   <si>
     <t>70.59 
- (18.12) 
+(18.12) 
 p0.0 = 10.00 
 p0.25 = 60.00 
 p0.5 = 75.00 
@@ -660,13 +520,13 @@
   </si>
   <si>
     <t>0.00 
- (0.00) 
+(0.00) 
 0: 1.00 
 N=179</t>
   </si>
   <si>
     <t>53.16 
- (22.88) 
+(22.88) 
 p0.0 = 0.00 
 p0.25 = 40.00 
 p0.5 = 55.00 
@@ -676,13 +536,13 @@
   </si>
   <si>
     <t>0.00 
- (0.00) 
+(0.00) 
 0: 1.00 
 N=177</t>
   </si>
   <si>
     <t>68.18 
- (17.75) 
+(17.75) 
 p0.0 = 10.00 
 p0.25 = 60.00 
 p0.5 = 70.00 
@@ -692,13 +552,13 @@
   </si>
   <si>
     <t>0.00 
- (0.00) 
+(0.00) 
 0: 1.00 
 N=161</t>
   </si>
   <si>
     <t>38.17 
- (23.78) 
+(23.78) 
 p0.0 = 2.00 
 p0.25 = 20.00 
 p0.5 = 30.00 
@@ -708,13 +568,13 @@
   </si>
   <si>
     <t>0.00 
- (0.00) 
+(0.00) 
 0: 1.00 
 N=162</t>
   </si>
   <si>
     <t>30.05 
- (19.87) 
+(19.87) 
 p0.0 = 1.00 
 p0.25 = 15.00 
 p0.5 = 26.00 
@@ -724,13 +584,13 @@
   </si>
   <si>
     <t>0.00 
- (0.00) 
+(0.00) 
 0: 1.00 
 N=165</t>
   </si>
   <si>
     <t>26.19 
- (18.55) 
+(18.55) 
 p0.0 = 1.00 
 p0.25 = 12.00 
 p0.5 = 21.00 
@@ -740,13 +600,13 @@
   </si>
   <si>
     <t>0.00 
- (0.00) 
+(0.00) 
 0: 1.00 
 N=182</t>
   </si>
   <si>
     <t>49.88 
- (16.17) 
+(16.17) 
 p0.0 = 10.00 
 p0.25 = 40.00 
 p0.5 = 50.00 
@@ -756,13 +616,13 @@
   </si>
   <si>
     <t>0.00 
- (0.00) 
+(0.00) 
 0: 1.00 
 N=168</t>
   </si>
   <si>
     <t>42.07 
- (21.85) 
+(21.85) 
 p0.0 = 3.00 
 p0.25 = 25.00 
 p0.5 = 40.00 
@@ -772,13 +632,13 @@
   </si>
   <si>
     <t>0.00 
- (0.00) 
+(0.00) 
 0: 1.00 
 N=193</t>
   </si>
   <si>
     <t>54.21 
- (21.40) 
+(21.40) 
 p0.0 = 2.00 
 p0.25 = 40.00 
 p0.5 = 55.00 
@@ -788,7 +648,7 @@
   </si>
   <si>
     <t>58.70 
- (17.58) 
+(17.58) 
 p0.0 = 10.00 
 p0.25 = 50.00 
 p0.5 = 60.00 
@@ -798,13 +658,13 @@
   </si>
   <si>
     <t>0.00 
- (0.00) 
+(0.00) 
 0: 1.00 
 N=175</t>
   </si>
   <si>
     <t>38.45 
- (20.58) 
+(20.58) 
 p0.0 = 4.00 
 p0.25 = 22.50 
 p0.5 = 35.00 
@@ -814,13 +674,13 @@
   </si>
   <si>
     <t>0.00 
- (0.00) 
+(0.00) 
 0: 1.00 
 N=1744</t>
   </si>
   <si>
     <t>46.41 
- (23.63) 
+(23.63) 
 p0.0 = 0.00 
 p0.25 = 30.00 
 p0.5 = 46.00 
@@ -836,138 +696,70 @@
   </si>
   <si>
     <t>35.09 
- (12.50) 
-28: 0.23 
-27: 0.20 
-30: 0.17 
-47: 0.14 
-25: 0.11 
-58: 0.06 
-53: 0.05 
-65: 0.02 
-82: 0.01 
 N=810</t>
   </si>
   <si>
     <t>39.03 
- (15.66) 
-30: 0.29 
-25: 0.13 
-47: 0.13 
-27: 0.10 
-28: 0.10 
-53: 0.08 
-58: 0.08 
-82: 0.05 
-65: 0.04 
 N=681</t>
   </si>
   <si>
     <t>49.06 
- (18.31) 
-30: 0.24 
-65: 0.17 
-53: 0.14 
-58: 0.13 
-82: 0.11 
-47: 0.07 
-25: 0.06 
-27: 0.05 
-28: 0.03 
 N=752</t>
   </si>
   <si>
     <t>55.24 
- (20.03) 
-82: 0.24 
-65: 0.17 
-58: 0.14 
-53: 0.13 
-30: 0.11 
-25: 0.09 
-47: 0.06 
-27: 0.04 
-28: 0.03 
 N=737</t>
   </si>
   <si>
     <t>58.00 
- (0.00) 
-58: 1.00 
 N=298</t>
   </si>
   <si>
     <t>82.00 
- (0.00) 
-82: 1.00 
 N=298</t>
   </si>
   <si>
     <t>47.00 
- (0.00) 
-47: 1.00 
 N=298</t>
   </si>
   <si>
     <t>27.00 
- (0.00) 
-27: 1.00 
 N=298</t>
   </si>
   <si>
     <t>28.00 
- (0.00) 
-28: 1.00 
 N=298</t>
   </si>
   <si>
     <t>30.00 
- (0.00) 
-30: 1.00 
 N=298</t>
   </si>
   <si>
     <t>25.00 
- (0.00) 
-25: 1.00 
 N=298</t>
   </si>
   <si>
     <t>53.00 
- (0.00) 
-53: 1.00 
 N=298</t>
   </si>
   <si>
     <t>65.00 
- (0.00) 
-65: 1.00 
 N=298</t>
   </si>
   <si>
     <t>44.50 
- (18.62) 
-30: 0.20 
-65: 0.10 
-53: 0.10 
-47: 0.10 
-27: 0.10 
-25: 0.10 
-82: 0.10 
-58: 0.10 
-28: 0.10 
 N=2980</t>
   </si>
   <si>
     <t>0.42 
- (0.49) 
+(0.49) 
 0: 0.58 
 1: 0.42 
 N=810</t>
   </si>
   <si>
     <t>20.71 
- (15.14) 
+(15.14) 
 p0.0 = 0.00 
 p0.25 = 10.00 
 p0.5 = 15.00 
@@ -977,14 +769,14 @@
   </si>
   <si>
     <t>0.44 
- (0.50) 
+(0.50) 
 0: 0.56 
 1: 0.44 
 N=681</t>
   </si>
   <si>
     <t>39.94 
- (14.97) 
+(14.97) 
 p0.0 = 0.00 
 p0.25 = 30.00 
 p0.5 = 40.00 
@@ -994,14 +786,14 @@
   </si>
   <si>
     <t>0.39 
- (0.49) 
+(0.49) 
 0: 0.61 
 1: 0.39 
 N=752</t>
   </si>
   <si>
     <t>53.28 
- (14.14) 
+(14.14) 
 p0.0 = 4.00 
 p0.25 = 41.75 
 p0.5 = 55.00 
@@ -1011,14 +803,14 @@
   </si>
   <si>
     <t>0.41 
- (0.49) 
+(0.49) 
 0: 0.59 
 1: 0.41 
 N=737</t>
   </si>
   <si>
     <t>71.23 
- (18.46) 
+(18.46) 
 p0.0 = 5.00 
 p0.25 = 60.00 
 p0.5 = 75.00 
@@ -1028,14 +820,14 @@
   </si>
   <si>
     <t>0.40 
- (0.49) 
+(0.49) 
 0: 0.60 
 1: 0.40 
 N=298</t>
   </si>
   <si>
     <t>53.41 
- (23.06) 
+(23.06) 
 p0.0 = 0.00 
 p0.25 = 39.25 
 p0.5 = 55.00 
@@ -1045,14 +837,14 @@
   </si>
   <si>
     <t>0.41 
- (0.49) 
+(0.49) 
 0: 0.59 
 1: 0.41 
 N=298</t>
   </si>
   <si>
     <t>67.54 
- (19.08) 
+(19.08) 
 p0.0 = 10.00 
 p0.25 = 55.00 
 p0.5 = 70.00 
@@ -1062,14 +854,14 @@
   </si>
   <si>
     <t>0.46 
- (0.50) 
+(0.50) 
 0: 0.54 
 1: 0.46 
 N=298</t>
   </si>
   <si>
     <t>36.83 
- (24.10) 
+(24.10) 
 p0.0 = 0.00 
 p0.25 = 18.50 
 p0.5 = 30.00 
@@ -1079,7 +871,7 @@
   </si>
   <si>
     <t>29.89 
- (21.30) 
+(21.30) 
 p0.0 = 1.00 
 p0.25 = 12.25 
 p0.5 = 25.00 
@@ -1089,14 +881,14 @@
   </si>
   <si>
     <t>0.45 
- (0.50) 
+(0.50) 
 0: 0.55 
 1: 0.45 
 N=298</t>
   </si>
   <si>
     <t>26.88 
- (20.83) 
+(20.83) 
 p0.0 = 1.00 
 p0.25 = 10.00 
 p0.5 = 20.50 
@@ -1106,14 +898,14 @@
   </si>
   <si>
     <t>0.39 
- (0.49) 
+(0.49) 
 0: 0.61 
 1: 0.39 
 N=298</t>
   </si>
   <si>
     <t>49.74 
- (16.41) 
+(16.41) 
 p0.0 = 10.00 
 p0.25 = 40.00 
 p0.5 = 50.00 
@@ -1123,14 +915,14 @@
   </si>
   <si>
     <t>0.44 
- (0.50) 
+(0.50) 
 0: 0.56 
 1: 0.44 
 N=298</t>
   </si>
   <si>
     <t>43.21 
- (24.09) 
+(24.09) 
 p0.0 = 3.00 
 p0.25 = 25.00 
 p0.5 = 40.00 
@@ -1140,14 +932,14 @@
   </si>
   <si>
     <t>0.35 
- (0.48) 
+(0.48) 
 0: 0.65 
 1: 0.35 
 N=298</t>
   </si>
   <si>
     <t>52.82 
- (21.89) 
+(21.89) 
 p0.0 = 0.00 
 p0.25 = 40.00 
 p0.5 = 55.00 
@@ -1157,7 +949,7 @@
   </si>
   <si>
     <t>58.49 
- (17.79) 
+(17.79) 
 p0.0 = 5.00 
 p0.25 = 50.00 
 p0.5 = 60.00 
@@ -1167,7 +959,7 @@
   </si>
   <si>
     <t>39.37 
- (22.78) 
+(22.78) 
 p0.0 = 4.00 
 p0.25 = 20.00 
 p0.5 = 35.00 
@@ -1177,14 +969,14 @@
   </si>
   <si>
     <t>0.41 
- (0.49) 
+(0.49) 
 0: 0.59 
 1: 0.41 
 N=2980</t>
   </si>
   <si>
     <t>45.82 
- (24.52) 
+(24.52) 
 p0.0 = 0.00 
 p0.25 = 25.00 
 p0.5 = 45.00 
@@ -1556,7 +1348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D75"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1565,794 +1357,794 @@
     <col min="1" max="100" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
     <row r="2" spans="1:4">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>39</v>
+      <c r="A5" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="4" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="4" t="s">
         <v>66</v>
       </c>
     </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3" t="s">
+      <c r="A24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>68</v>
       </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4">
       <c r="B27" s="1" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4">
       <c r="B28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4">
       <c r="B29" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="B30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>39</v>
+      <c r="A30" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
-        <v>2</v>
+      <c r="A31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="4" t="s">
         <v>94</v>
       </c>
     </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="2" t="s">
-        <v>7</v>
+      <c r="A37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D47" s="4" t="s">
         <v>113</v>
       </c>
     </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="3" t="s">
+      <c r="A49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>115</v>
       </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="B51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
     </row>
     <row r="52" spans="1:4">
       <c r="B52" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
     <row r="53" spans="1:4">
       <c r="B53" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:4">
       <c r="B54" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="B55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>39</v>
+      <c r="A55" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="2" t="s">
-        <v>2</v>
+      <c r="A56" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="3" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D60" s="4" t="s">
         <v>139</v>
       </c>
     </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="2" t="s">
-        <v>7</v>
+      <c r="A62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>144</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D72" s="4" t="s">
         <v>156</v>
       </c>
     </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="3" t="s">
+      <c r="A74" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B74" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C74" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D74" s="4" t="s">
         <v>158</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B51:D51"/>
     <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C53:D53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2360,7 +2152,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2369,36 +2161,36 @@
     <col min="1" max="100" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
     <row r="2" spans="1:2">
       <c r="B2" s="1" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" s="1" t="s">
-        <v>161</v>
+      <c r="A5" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>162</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -14,21 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
   <si>
     <t>Pooled</t>
   </si>
   <si>
+    <t>First Estimate</t>
+  </si>
+  <si>
+    <t>(-0.001, 25.0]</t>
+  </si>
+  <si>
+    <t>(25.0, 47.0]</t>
+  </si>
+  <si>
+    <t>(47.0, 65.0]</t>
+  </si>
+  <si>
+    <t>(65.0, 100.0]</t>
+  </si>
+  <si>
+    <t>Preference question</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> are more curious to try Soap flavored Bertie Bott's Every Flavour Beans than Earthworm flavored Bertie Bott's Every Flavour Beans</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> believe climate change is a serious threat to human survival</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> believe it should be legal to use psychedelic drugs  (e.g. LSD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can juggle with 3 balls</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> own crypto currency (e.g. Bitcoin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> prefer red over blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> would feel safer in a self-driving car (rather than driving themselves)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> would prefer Dick Cheney over Sarah Palin to be president of the United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> would rather have the superpower of flight than super strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> would rather spend their evening going to a play at the theater than seeing a movie</t>
+  </si>
+  <si>
     <t>---</t>
   </si>
   <si>
     <t>Summary Statistics</t>
   </si>
   <si>
-    <t>SecondEst</t>
-  </si>
-  <si>
-    <t>SecondEstBetter</t>
+    <t>Second Estimate</t>
+  </si>
+  <si>
+    <t>% of Time Second Estimate is Preferred to First Estimate</t>
   </si>
   <si>
     <t>45.82 
@@ -397,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,32 +466,196 @@
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Pooled</t>
   </si>
@@ -77,6 +77,223 @@
   </si>
   <si>
     <t>% of Time Second Estimate is Preferred to First Estimate</t>
+  </si>
+  <si>
+    <t>20.71 
+(15.14) 
+p0.0 = 0.00 
+p0.25 = 10.00 
+p0.5 = 15.00 
+p0.75 = 30.00 
+p1.0 = 85.00 
+N=810</t>
+  </si>
+  <si>
+    <t>0.42 
+(0.49) 
+0: 0.58 
+1: 0.42 
+N=810</t>
+  </si>
+  <si>
+    <t>39.94 
+(14.97) 
+p0.0 = 0.00 
+p0.25 = 30.00 
+p0.5 = 40.00 
+p0.75 = 50.00 
+p1.0 = 93.00 
+N=681</t>
+  </si>
+  <si>
+    <t>0.44 
+(0.50) 
+0: 0.56 
+1: 0.44 
+N=681</t>
+  </si>
+  <si>
+    <t>53.28 
+(14.14) 
+p0.0 = 4.00 
+p0.25 = 41.75 
+p0.5 = 55.00 
+p0.75 = 64.25 
+p1.0 = 100.00 
+N=752</t>
+  </si>
+  <si>
+    <t>0.39 
+(0.49) 
+0: 0.61 
+1: 0.39 
+N=752</t>
+  </si>
+  <si>
+    <t>71.23 
+(18.46) 
+p0.0 = 5.00 
+p0.25 = 60.00 
+p0.5 = 75.00 
+p0.75 = 85.00 
+p1.0 = 100.00 
+N=737</t>
+  </si>
+  <si>
+    <t>0.41 
+(0.49) 
+0: 0.59 
+1: 0.41 
+N=737</t>
+  </si>
+  <si>
+    <t>53.41 
+(23.06) 
+p0.0 = 0.00 
+p0.25 = 39.25 
+p0.5 = 55.00 
+p0.75 = 71.50 
+p1.0 = 98.00 
+N=298</t>
+  </si>
+  <si>
+    <t>0.40 
+(0.49) 
+0: 0.60 
+1: 0.40 
+N=298</t>
+  </si>
+  <si>
+    <t>67.54 
+(19.08) 
+p0.0 = 10.00 
+p0.25 = 55.00 
+p0.5 = 70.00 
+p0.75 = 80.00 
+p1.0 = 100.00 
+N=298</t>
+  </si>
+  <si>
+    <t>0.41 
+(0.49) 
+0: 0.59 
+1: 0.41 
+N=298</t>
+  </si>
+  <si>
+    <t>36.83 
+(24.10) 
+p0.0 = 0.00 
+p0.25 = 18.50 
+p0.5 = 30.00 
+p0.75 = 55.00 
+p1.0 = 100.00 
+N=298</t>
+  </si>
+  <si>
+    <t>0.46 
+(0.50) 
+0: 0.54 
+1: 0.46 
+N=298</t>
+  </si>
+  <si>
+    <t>29.89 
+(21.30) 
+p0.0 = 1.00 
+p0.25 = 12.25 
+p0.5 = 25.00 
+p0.75 = 42.75 
+p1.0 = 95.00 
+N=298</t>
+  </si>
+  <si>
+    <t>26.88 
+(20.83) 
+p0.0 = 1.00 
+p0.25 = 10.00 
+p0.5 = 20.50 
+p0.75 = 40.00 
+p1.0 = 98.00 
+N=298</t>
+  </si>
+  <si>
+    <t>0.45 
+(0.50) 
+0: 0.55 
+1: 0.45 
+N=298</t>
+  </si>
+  <si>
+    <t>49.74 
+(16.41) 
+p0.0 = 10.00 
+p0.25 = 40.00 
+p0.5 = 50.00 
+p0.75 = 59.25 
+p1.0 = 100.00 
+N=298</t>
+  </si>
+  <si>
+    <t>0.39 
+(0.49) 
+0: 0.61 
+1: 0.39 
+N=298</t>
+  </si>
+  <si>
+    <t>43.21 
+(24.09) 
+p0.0 = 3.00 
+p0.25 = 25.00 
+p0.5 = 40.00 
+p0.75 = 60.00 
+p1.0 = 100.00 
+N=298</t>
+  </si>
+  <si>
+    <t>0.44 
+(0.50) 
+0: 0.56 
+1: 0.44 
+N=298</t>
+  </si>
+  <si>
+    <t>52.82 
+(21.89) 
+p0.0 = 0.00 
+p0.25 = 40.00 
+p0.5 = 55.00 
+p0.75 = 67.75 
+p1.0 = 100.00 
+N=298</t>
+  </si>
+  <si>
+    <t>0.35 
+(0.48) 
+0: 0.65 
+1: 0.35 
+N=298</t>
+  </si>
+  <si>
+    <t>58.49 
+(17.79) 
+p0.0 = 5.00 
+p0.25 = 50.00 
+p0.5 = 60.00 
+p0.75 = 70.00 
+p1.0 = 100.00 
+N=298</t>
+  </si>
+  <si>
+    <t>39.37 
+(22.78) 
+p0.0 = 4.00 
+p0.25 = 20.00 
+p0.5 = 35.00 
+p0.75 = 51.50 
+p1.0 = 100.00 
+N=298</t>
   </si>
   <si>
     <t>45.82 
@@ -499,10 +716,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -510,10 +727,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -521,10 +738,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -537,10 +754,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -548,10 +765,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -559,10 +776,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -570,10 +787,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -581,10 +798,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -592,10 +809,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -603,10 +820,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -614,10 +831,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -625,10 +842,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -636,10 +853,10 @@
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -652,10 +869,10 @@
         <v>17</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -14,69 +14,771 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="159">
+  <si>
+    <t>Hello world</t>
+  </si>
+  <si>
+    <t>% of Time Second Estimate is Preferred to First Estimate = 1</t>
+  </si>
+  <si>
+    <t>First Estimate</t>
+  </si>
+  <si>
+    <t>(-0.001, 25.0]</t>
+  </si>
+  <si>
+    <t>(25.0, 45.0]</t>
+  </si>
+  <si>
+    <t>(45.0, 65.0]</t>
+  </si>
+  <si>
+    <t>(65.0, 100.0]</t>
+  </si>
+  <si>
+    <t>Preference question</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> are more curious to try Soap flavored Bertie Bott's Every Flavour Beans than Earthworm flavored Bertie Bott's Every Flavour Beans</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> believe climate change is a serious threat to human survival</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> believe it should be legal to use psychedelic drugs  (e.g. LSD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can juggle with 3 balls</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> own crypto currency (e.g. Bitcoin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> prefer red over blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> would feel safer in a self-driving car (rather than driving themselves)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> would prefer Dick Cheney over Sarah Palin to be president of the United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> would rather have the superpower of flight than super strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> would rather spend their evening going to a play at the theater than seeing a movie</t>
+  </si>
   <si>
     <t>Pooled</t>
   </si>
   <si>
-    <t>First Estimate</t>
-  </si>
-  <si>
-    <t>(-0.001, 25.0]</t>
+    <t>---</t>
+  </si>
+  <si>
+    <t>Summary Statistics</t>
+  </si>
+  <si>
+    <t>Second Estimate</t>
+  </si>
+  <si>
+    <t>% of Time Second Estimate is Preferred to First Estimate</t>
+  </si>
+  <si>
+    <t>% of time average estimate is better than first</t>
+  </si>
+  <si>
+    <t>19.68 
+(15.88) 
+p0.0 = 0.00 
+p0.25 = 9.00 
+p0.5 = 15.00 
+p0.75 = 25.00 
+p1.0 = 85.00 
+N=343</t>
+  </si>
+  <si>
+    <t>1.00 
+(0.00) 
+1: 1.00 
+N=343</t>
+  </si>
+  <si>
+    <t>0.52 
+(0.50) 
+1: 0.52 
+0: 0.48 
+N=343</t>
+  </si>
+  <si>
+    <t>38.20 
+(16.52) 
+p0.0 = 0.00 
+p0.25 = 25.00 
+p0.5 = 35.00 
+p0.75 = 50.00 
+p1.0 = 90.00 
+N=294</t>
+  </si>
+  <si>
+    <t>1.00 
+(0.00) 
+1: 1.00 
+N=294</t>
+  </si>
+  <si>
+    <t>0.48 
+(0.50) 
+0: 0.52 
+1: 0.48 
+N=294</t>
+  </si>
+  <si>
+    <t>53.29 
+(14.89) 
+p0.0 = 5.00 
+p0.25 = 41.00 
+p0.5 = 55.00 
+p0.75 = 65.00 
+p1.0 = 100.00 
+N=297</t>
+  </si>
+  <si>
+    <t>1.00 
+(0.00) 
+1: 1.00 
+N=297</t>
+  </si>
+  <si>
+    <t>0.55 
+(0.50) 
+1: 0.55 
+0: 0.45 
+N=297</t>
+  </si>
+  <si>
+    <t>72.14 
+(18.93) 
+p0.0 = 5.00 
+p0.25 = 60.00 
+p0.5 = 75.00 
+p0.75 = 85.00 
+p1.0 = 100.00 
+N=302</t>
+  </si>
+  <si>
+    <t>1.00 
+(0.00) 
+1: 1.00 
+N=302</t>
+  </si>
+  <si>
+    <t>0.59 
+(0.49) 
+1: 0.59 
+0: 0.41 
+N=302</t>
+  </si>
+  <si>
+    <t>53.78 
+(23.40) 
+p0.0 = 4.00 
+p0.25 = 35.00 
+p0.5 = 55.00 
+p0.75 = 73.50 
+p1.0 = 96.00 
+N=119</t>
+  </si>
+  <si>
+    <t>1.00 
+(0.00) 
+1: 1.00 
+N=119</t>
+  </si>
+  <si>
+    <t>0.60 
+(0.49) 
+1: 0.60 
+0: 0.40 
+N=119</t>
+  </si>
+  <si>
+    <t>66.60 
+(20.91) 
+p0.0 = 10.00 
+p0.25 = 53.00 
+p0.5 = 70.00 
+p0.75 = 80.00 
+p1.0 = 99.00 
+N=121</t>
+  </si>
+  <si>
+    <t>1.00 
+(0.00) 
+1: 1.00 
+N=121</t>
+  </si>
+  <si>
+    <t>0.50 
+(0.50) 
+1: 0.50 
+0: 0.50 
+N=121</t>
+  </si>
+  <si>
+    <t>35.25 
+(24.46) 
+p0.0 = 0.00 
+p0.25 = 18.00 
+p0.5 = 30.00 
+p0.75 = 50.00 
+p1.0 = 100.00 
+N=137</t>
+  </si>
+  <si>
+    <t>1.00 
+(0.00) 
+1: 1.00 
+N=137</t>
+  </si>
+  <si>
+    <t>0.41 
+(0.49) 
+0: 0.59 
+1: 0.41 
+N=137</t>
+  </si>
+  <si>
+    <t>29.70 
+(22.96) 
+p0.0 = 1.00 
+p0.25 = 10.75 
+p0.5 = 25.00 
+p0.75 = 45.75 
+p1.0 = 90.00 
+N=136</t>
+  </si>
+  <si>
+    <t>1.00 
+(0.00) 
+1: 1.00 
+N=136</t>
+  </si>
+  <si>
+    <t>0.54 
+(0.50) 
+1: 0.54 
+0: 0.46 
+N=136</t>
+  </si>
+  <si>
+    <t>27.73 
+(23.40) 
+p0.0 = 1.00 
+p0.25 = 8.00 
+p0.5 = 20.00 
+p0.75 = 45.00 
+p1.0 = 98.00 
+N=133</t>
+  </si>
+  <si>
+    <t>1.00 
+(0.00) 
+1: 1.00 
+N=133</t>
+  </si>
+  <si>
+    <t>0.52 
+(0.50) 
+1: 0.52 
+0: 0.48 
+N=133</t>
+  </si>
+  <si>
+    <t>49.52 
+(16.83) 
+p0.0 = 10.00 
+p0.25 = 40.00 
+p0.5 = 50.00 
+p0.75 = 56.00 
+p1.0 = 95.00 
+N=116</t>
+  </si>
+  <si>
+    <t>1.00 
+(0.00) 
+1: 1.00 
+N=116</t>
+  </si>
+  <si>
+    <t>0.47 
+(0.50) 
+0: 0.53 
+1: 0.47 
+N=116</t>
+  </si>
+  <si>
+    <t>44.69 
+(26.72) 
+p0.0 = 5.00 
+p0.25 = 24.25 
+p0.5 = 40.00 
+p0.75 = 65.00 
+p1.0 = 100.00 
+N=130</t>
+  </si>
+  <si>
+    <t>1.00 
+(0.00) 
+1: 1.00 
+N=130</t>
+  </si>
+  <si>
+    <t>0.56 
+(0.50) 
+1: 0.56 
+0: 0.44 
+N=130</t>
+  </si>
+  <si>
+    <t>50.26 
+(22.64) 
+p0.0 = 0.00 
+p0.25 = 35.00 
+p0.5 = 50.00 
+p0.75 = 65.00 
+p1.0 = 100.00 
+N=105</t>
+  </si>
+  <si>
+    <t>1.00 
+(0.00) 
+1: 1.00 
+N=105</t>
+  </si>
+  <si>
+    <t>0.69 
+(0.47) 
+1: 0.69 
+0: 0.31 
+N=105</t>
+  </si>
+  <si>
+    <t>58.16 
+(18.18) 
+p0.0 = 5.00 
+p0.25 = 50.00 
+p0.5 = 60.00 
+p0.75 = 70.00 
+p1.0 = 92.00 
+N=116</t>
+  </si>
+  <si>
+    <t>0.60 
+(0.49) 
+1: 0.60 
+0: 0.40 
+N=116</t>
+  </si>
+  <si>
+    <t>40.67 
+(25.62) 
+p0.0 = 5.00 
+p0.25 = 20.00 
+p0.5 = 35.00 
+p0.75 = 53.00 
+p1.0 = 100.00 
+N=123</t>
+  </si>
+  <si>
+    <t>1.00 
+(0.00) 
+1: 1.00 
+N=123</t>
+  </si>
+  <si>
+    <t>0.49 
+(0.50) 
+0: 0.51 
+1: 0.49 
+N=123</t>
+  </si>
+  <si>
+    <t>44.98 
+(25.70) 
+p0.0 = 0.00 
+p0.25 = 24.00 
+p0.5 = 45.00 
+p0.75 = 65.00 
+p1.0 = 100.00 
+N=1236</t>
+  </si>
+  <si>
+    <t>1.00 
+(0.00) 
+1: 1.00 
+N=1236</t>
+  </si>
+  <si>
+    <t>0.53 
+(0.50) 
+1: 0.53 
+0: 0.47 
+N=1236</t>
+  </si>
+  <si>
+    <t>% of Time Second Estimate is Preferred to First Estimate = 0</t>
+  </si>
+  <si>
+    <t>(25.0, 50.0]</t>
+  </si>
+  <si>
+    <t>(50.0, 65.0]</t>
+  </si>
+  <si>
+    <t>21.47 
+(14.54) 
+p0.0 = 0.00 
+p0.25 = 10.00 
+p0.5 = 18.00 
+p0.75 = 30.00 
+p1.0 = 80.00 
+N=467</t>
+  </si>
+  <si>
+    <t>0.00 
+(0.00) 
+0: 1.00 
+N=467</t>
+  </si>
+  <si>
+    <t>0.67 
+(0.47) 
+1: 0.67 
+0: 0.33 
+N=467</t>
+  </si>
+  <si>
+    <t>45.14 
+(14.55) 
+p0.0 = 4.00 
+p0.25 = 35.00 
+p0.5 = 45.00 
+p0.75 = 55.00 
+p1.0 = 93.00 
+N=631</t>
+  </si>
+  <si>
+    <t>0.00 
+(0.00) 
+0: 1.00 
+N=631</t>
+  </si>
+  <si>
+    <t>0.46 
+(0.50) 
+0: 0.54 
+1: 0.46 
+N=631</t>
+  </si>
+  <si>
+    <t>55.55 
+(12.93) 
+p0.0 = 25.00 
+p0.25 = 46.00 
+p0.5 = 55.00 
+p0.75 = 69.00 
+p1.0 = 85.00 
+N=211</t>
+  </si>
+  <si>
+    <t>0.00 
+(0.00) 
+0: 1.00 
+N=211</t>
+  </si>
+  <si>
+    <t>0.49 
+(0.50) 
+0: 0.51 
+1: 0.49 
+N=211</t>
+  </si>
+  <si>
+    <t>70.59 
+(18.12) 
+p0.0 = 10.00 
+p0.25 = 60.00 
+p0.5 = 75.00 
+p0.75 = 85.00 
+p1.0 = 100.00 
+N=435</t>
+  </si>
+  <si>
+    <t>0.00 
+(0.00) 
+0: 1.00 
+N=435</t>
+  </si>
+  <si>
+    <t>0.61 
+(0.49) 
+1: 0.61 
+0: 0.39 
+N=435</t>
+  </si>
+  <si>
+    <t>53.16 
+(22.88) 
+p0.0 = 0.00 
+p0.25 = 40.00 
+p0.5 = 55.00 
+p0.75 = 70.00 
+p1.0 = 98.00 
+N=179</t>
+  </si>
+  <si>
+    <t>0.00 
+(0.00) 
+0: 1.00 
+N=179</t>
+  </si>
+  <si>
+    <t>0.58 
+(0.49) 
+1: 0.58 
+0: 0.42 
+N=179</t>
+  </si>
+  <si>
+    <t>68.18 
+(17.75) 
+p0.0 = 10.00 
+p0.25 = 60.00 
+p0.5 = 70.00 
+p0.75 = 80.00 
+p1.0 = 100.00 
+N=177</t>
+  </si>
+  <si>
+    <t>0.00 
+(0.00) 
+0: 1.00 
+N=177</t>
+  </si>
+  <si>
+    <t>0.50 
+(0.50) 
+0: 0.50 
+1: 0.50 
+N=177</t>
+  </si>
+  <si>
+    <t>38.17 
+(23.78) 
+p0.0 = 2.00 
+p0.25 = 20.00 
+p0.5 = 30.00 
+p0.75 = 60.00 
+p1.0 = 95.00 
+N=161</t>
+  </si>
+  <si>
+    <t>0.00 
+(0.00) 
+0: 1.00 
+N=161</t>
+  </si>
+  <si>
+    <t>0.54 
+(0.50) 
+1: 0.54 
+0: 0.46 
+N=161</t>
+  </si>
+  <si>
+    <t>30.05 
+(19.87) 
+p0.0 = 1.00 
+p0.25 = 15.00 
+p0.5 = 26.00 
+p0.75 = 40.75 
+p1.0 = 95.00 
+N=162</t>
+  </si>
+  <si>
+    <t>0.00 
+(0.00) 
+0: 1.00 
+N=162</t>
+  </si>
+  <si>
+    <t>0.59 
+(0.49) 
+1: 0.59 
+0: 0.41 
+N=162</t>
+  </si>
+  <si>
+    <t>26.19 
+(18.55) 
+p0.0 = 1.00 
+p0.25 = 12.00 
+p0.5 = 21.00 
+p0.75 = 40.00 
+p1.0 = 90.00 
+N=165</t>
+  </si>
+  <si>
+    <t>0.00 
+(0.00) 
+0: 1.00 
+N=165</t>
+  </si>
+  <si>
+    <t>0.59 
+(0.49) 
+1: 0.59 
+0: 0.41 
+N=165</t>
+  </si>
+  <si>
+    <t>49.88 
+(16.17) 
+p0.0 = 10.00 
+p0.25 = 40.00 
+p0.5 = 50.00 
+p0.75 = 60.00 
+p1.0 = 100.00 
+N=182</t>
+  </si>
+  <si>
+    <t>0.00 
+(0.00) 
+0: 1.00 
+N=182</t>
+  </si>
+  <si>
+    <t>0.47 
+(0.50) 
+0: 0.53 
+1: 0.47 
+N=182</t>
+  </si>
+  <si>
+    <t>42.07 
+(21.85) 
+p0.0 = 3.00 
+p0.25 = 25.00 
+p0.5 = 40.00 
+p0.75 = 60.00 
+p1.0 = 100.00 
+N=168</t>
+  </si>
+  <si>
+    <t>0.00 
+(0.00) 
+0: 1.00 
+N=168</t>
+  </si>
+  <si>
+    <t>0.54 
+(0.50) 
+1: 0.54 
+0: 0.46 
+N=168</t>
+  </si>
+  <si>
+    <t>54.21 
+(21.40) 
+p0.0 = 2.00 
+p0.25 = 40.00 
+p0.5 = 55.00 
+p0.75 = 70.00 
+p1.0 = 100.00 
+N=193</t>
+  </si>
+  <si>
+    <t>0.00 
+(0.00) 
+0: 1.00 
+N=193</t>
+  </si>
+  <si>
+    <t>0.63 
+(0.48) 
+1: 0.63 
+0: 0.37 
+N=193</t>
+  </si>
+  <si>
+    <t>58.70 
+(17.58) 
+p0.0 = 10.00 
+p0.25 = 50.00 
+p0.5 = 60.00 
+p0.75 = 70.00 
+p1.0 = 100.00 
+N=182</t>
+  </si>
+  <si>
+    <t>0.57 
+(0.50) 
+1: 0.57 
+0: 0.43 
+N=182</t>
+  </si>
+  <si>
+    <t>38.45 
+(20.58) 
+p0.0 = 4.00 
+p0.25 = 22.50 
+p0.5 = 35.00 
+p0.75 = 51.00 
+p1.0 = 99.00 
+N=175</t>
+  </si>
+  <si>
+    <t>0.00 
+(0.00) 
+0: 1.00 
+N=175</t>
+  </si>
+  <si>
+    <t>0.57 
+(0.50) 
+1: 0.57 
+0: 0.43 
+N=175</t>
+  </si>
+  <si>
+    <t>46.41 
+(23.63) 
+p0.0 = 0.00 
+p0.25 = 30.00 
+p0.5 = 46.00 
+p0.75 = 63.00 
+p1.0 = 100.00 
+N=1744</t>
+  </si>
+  <si>
+    <t>0.00 
+(0.00) 
+0: 1.00 
+N=1744</t>
+  </si>
+  <si>
+    <t>0.56 
+(0.50) 
+1: 0.56 
+0: 0.44 
+N=1744</t>
   </si>
   <si>
     <t>(25.0, 47.0]</t>
   </si>
   <si>
     <t>(47.0, 65.0]</t>
-  </si>
-  <si>
-    <t>(65.0, 100.0]</t>
-  </si>
-  <si>
-    <t>Preference question</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> are more curious to try Soap flavored Bertie Bott's Every Flavour Beans than Earthworm flavored Bertie Bott's Every Flavour Beans</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> believe climate change is a serious threat to human survival</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> believe it should be legal to use psychedelic drugs  (e.g. LSD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> can juggle with 3 balls</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> own crypto currency (e.g. Bitcoin)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> prefer red over blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> would feel safer in a self-driving car (rather than driving themselves)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> would prefer Dick Cheney over Sarah Palin to be president of the United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> would rather have the superpower of flight than super strength</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> would rather spend their evening going to a play at the theater than seeing a movie</t>
-  </si>
-  <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t>Summary Statistics</t>
-  </si>
-  <si>
-    <t>Second Estimate</t>
-  </si>
-  <si>
-    <t>% of Time Second Estimate is Preferred to First Estimate</t>
   </si>
   <si>
     <t>20.71 
@@ -96,6 +798,13 @@
 N=810</t>
   </si>
   <si>
+    <t>0.61 
+(0.49) 
+1: 0.61 
+0: 0.39 
+N=810</t>
+  </si>
+  <si>
     <t>39.94 
 (14.97) 
 p0.0 = 0.00 
@@ -113,6 +822,13 @@
 N=681</t>
   </si>
   <si>
+    <t>0.45 
+(0.50) 
+0: 0.55 
+1: 0.45 
+N=681</t>
+  </si>
+  <si>
     <t>53.28 
 (14.14) 
 p0.0 = 4.00 
@@ -130,6 +846,13 @@
 N=752</t>
   </si>
   <si>
+    <t>0.53 
+(0.50) 
+1: 0.53 
+0: 0.47 
+N=752</t>
+  </si>
+  <si>
     <t>71.23 
 (18.46) 
 p0.0 = 5.00 
@@ -144,6 +867,13 @@
 (0.49) 
 0: 0.59 
 1: 0.41 
+N=737</t>
+  </si>
+  <si>
+    <t>0.60 
+(0.49) 
+1: 0.60 
+0: 0.40 
 N=737</t>
   </si>
   <si>
@@ -164,6 +894,13 @@
 N=298</t>
   </si>
   <si>
+    <t>0.59 
+(0.49) 
+1: 0.59 
+0: 0.41 
+N=298</t>
+  </si>
+  <si>
     <t>67.54 
 (19.08) 
 p0.0 = 10.00 
@@ -181,6 +918,13 @@
 N=298</t>
   </si>
   <si>
+    <t>0.50 
+(0.50) 
+1: 0.50 
+0: 0.50 
+N=298</t>
+  </si>
+  <si>
     <t>36.83 
 (24.10) 
 p0.0 = 0.00 
@@ -195,6 +939,13 @@
 (0.50) 
 0: 0.54 
 1: 0.46 
+N=298</t>
+  </si>
+  <si>
+    <t>0.48 
+(0.50) 
+0: 0.52 
+1: 0.48 
 N=298</t>
   </si>
   <si>
@@ -208,6 +959,13 @@
 N=298</t>
   </si>
   <si>
+    <t>0.57 
+(0.50) 
+1: 0.57 
+0: 0.43 
+N=298</t>
+  </si>
+  <si>
     <t>26.88 
 (20.83) 
 p0.0 = 1.00 
@@ -225,6 +983,13 @@
 N=298</t>
   </si>
   <si>
+    <t>0.56 
+(0.50) 
+1: 0.56 
+0: 0.44 
+N=298</t>
+  </si>
+  <si>
     <t>49.74 
 (16.41) 
 p0.0 = 10.00 
@@ -242,6 +1007,13 @@
 N=298</t>
   </si>
   <si>
+    <t>0.47 
+(0.50) 
+0: 0.53 
+1: 0.47 
+N=298</t>
+  </si>
+  <si>
     <t>43.21 
 (24.09) 
 p0.0 = 3.00 
@@ -259,6 +1031,13 @@
 N=298</t>
   </si>
   <si>
+    <t>0.55 
+(0.50) 
+1: 0.55 
+0: 0.45 
+N=298</t>
+  </si>
+  <si>
     <t>52.82 
 (21.89) 
 p0.0 = 0.00 
@@ -276,6 +1055,13 @@
 N=298</t>
   </si>
   <si>
+    <t>0.65 
+(0.48) 
+1: 0.65 
+0: 0.35 
+N=298</t>
+  </si>
+  <si>
     <t>58.49 
 (17.79) 
 p0.0 = 5.00 
@@ -286,6 +1072,13 @@
 N=298</t>
   </si>
   <si>
+    <t>0.58 
+(0.49) 
+1: 0.58 
+0: 0.42 
+N=298</t>
+  </si>
+  <si>
     <t>39.37 
 (22.78) 
 p0.0 = 4.00 
@@ -296,6 +1089,13 @@
 N=298</t>
   </si>
   <si>
+    <t>0.54 
+(0.50) 
+1: 0.54 
+0: 0.46 
+N=298</t>
+  </si>
+  <si>
     <t>45.82 
 (24.52) 
 p0.0 = 0.00 
@@ -310,6 +1110,13 @@
 (0.49) 
 0: 0.59 
 1: 0.41 
+N=2980</t>
+  </si>
+  <si>
+    <t>0.55 
+(0.50) 
+1: 0.55 
+0: 0.45 
 N=2980</t>
   </si>
 </sst>
@@ -662,7 +1469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -671,215 +1478,788 @@
     <col min="1" max="100" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1"/>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="1" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B49" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="B51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="B52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="B53" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="B54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="B56" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
+      <c r="B59" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3" t="s">
+      <c r="B62" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
+      <c r="B63" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
+      <c r="B64" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
+      <c r="B65" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
+      <c r="B66" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
+      <c r="B67" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
+      <c r="B68" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
+      <c r="B69" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
+      <c r="B70" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>47</v>
+      <c r="B71" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
+  <mergeCells count="9">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="204">
   <si>
     <t>Hello world</t>
   </si>
@@ -427,6 +427,87 @@
 N=1236</t>
   </si>
   <si>
+    <t>% of time average estimate is better than preferred</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>0.554 
+ (0.033) 
+ t = 16.54, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.622 
+ (0.028) 
+ t = 22.24, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.569 
+ (0.031) 
+ t = 18.44, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.523 
+ (0.031) 
+ t = 16.61, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.580 
+ (0.045) 
+ t = 12.76, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.570 
+ (0.045) 
+ t = 12.62, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.664 
+ (0.040) 
+ t = 16.40, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.551 
+ (0.043) 
+ t = 12.88, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.586 
+ (0.043) 
+ t = 13.68, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.586 
+ (0.046) 
+ t = 12.76, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.485 
+ (0.044) 
+ t = 11.01, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.495 
+ (0.049) 
+ t = 10.10, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.578 
+ (0.046) 
+ t = 12.54, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.553 
+ (0.045) 
+ t = 12.28, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.566 
+ (0.016) 
+ t = 35.19, p = 0.000</t>
+  </si>
+  <si>
     <t>% of Time Second Estimate is Preferred to First Estimate = 0</t>
   </si>
   <si>
@@ -775,6 +856,81 @@
 N=1744</t>
   </si>
   <si>
+    <t>0.668 
+ (0.026) 
+ t = 25.72, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.463 
+ (0.020) 
+ t = 23.46, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.488 
+ (0.038) 
+ t = 12.89, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.611 
+ (0.027) 
+ t = 22.87, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.581 
+ (0.037) 
+ t = 15.71, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.497 
+ (0.038) 
+ t = 13.19, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.540 
+ (0.039) 
+ t = 13.72, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.593 
+ (0.039) 
+ t = 15.30, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.588 
+ (0.038) 
+ t = 15.30, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.467 
+ (0.037) 
+ t = 12.59, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.542 
+ (0.039) 
+ t = 14.05, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.627 
+ (0.035) 
+ t = 17.96, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.571 
+ (0.037) 
+ t = 15.53, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.571 
+ (0.038) 
+ t = 15.23, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.558 
+ (0.014) 
+ t = 40.64, p = 0.000</t>
+  </si>
+  <si>
     <t>(25.0, 47.0]</t>
   </si>
   <si>
@@ -1118,6 +1274,71 @@
 1: 0.55 
 0: 0.45 
 N=2980</t>
+  </si>
+  <si>
+    <t>0.620 
+ (0.020) 
+ t = 30.33, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.508 
+ (0.019) 
+ t = 26.73, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.533 
+ (0.019) 
+ t = 28.62, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.575 
+ (0.019) 
+ t = 29.78, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.581 
+ (0.029) 
+ t = 20.27, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.527 
+ (0.029) 
+ t = 18.19, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.597 
+ (0.028) 
+ t = 20.99, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.574 
+ (0.029) 
+ t = 20.00, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.587 
+ (0.029) 
+ t = 20.56, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.513 
+ (0.029) 
+ t = 17.70, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.517 
+ (0.029) 
+ t = 17.82, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.564 
+ (0.029) 
+ t = 19.59, p = 0.000</t>
+  </si>
+  <si>
+    <t>0.561 
+ (0.010) 
+ t = 56.03, p = 0.000</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1478,28 +1699,33 @@
     <col min="1" max="100" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1509,13 +1735,16 @@
       <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1528,8 +1757,11 @@
       <c r="D6" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1542,8 +1774,11 @@
       <c r="D7" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1556,8 +1791,11 @@
       <c r="D8" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1570,13 +1808,16 @@
       <c r="D9" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E9" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1589,8 +1830,11 @@
       <c r="D12" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1603,8 +1847,11 @@
       <c r="D13" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1617,8 +1864,11 @@
       <c r="D14" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1631,8 +1881,11 @@
       <c r="D15" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -1645,8 +1898,11 @@
       <c r="D16" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -1659,8 +1915,11 @@
       <c r="D17" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -1673,8 +1932,11 @@
       <c r="D18" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -1687,8 +1949,11 @@
       <c r="D19" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
@@ -1701,8 +1966,11 @@
       <c r="D20" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -1715,13 +1983,16 @@
       <c r="D21" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E21" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
         <v>19</v>
       </c>
@@ -1734,29 +2005,37 @@
       <c r="D24" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E24" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5">
       <c r="B28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="B29" s="1" t="s">
         <v>21</v>
       </c>
@@ -1766,254 +2045,307 @@
       <c r="D29" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>90</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="3" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>93</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>96</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>99</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>102</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>105</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>108</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>111</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>114</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>117</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>120</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>123</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>125</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>128</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:5">
       <c r="A49" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>131</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="B51" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5">
       <c r="B52" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5">
       <c r="B53" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -2023,242 +2355,290 @@
       <c r="D54" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>151</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="3" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>154</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="3" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>157</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>160</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:5">
       <c r="A62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>163</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>166</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>169</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>171</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>174</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>177</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>183</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>185</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>187</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:5">
       <c r="A74" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>158</v>
+        <v>190</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
     <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
     <mergeCell ref="B53:D53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
